--- a/data/serie_energia.xlsx
+++ b/data/serie_energia.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="163">
   <si>
     <t>AGENTE</t>
   </si>
@@ -112,6 +112,9 @@
     <t>Energía MWh 062025</t>
   </si>
   <si>
+    <t>Energía MWh 072025</t>
+  </si>
+  <si>
     <t>Potencia kW 012023</t>
   </si>
   <si>
@@ -200,6 +203,9 @@
   </si>
   <si>
     <t>Potencia kW 062025</t>
+  </si>
+  <si>
+    <t>Potencia kW 072025</t>
   </si>
   <si>
     <t>Arboleda</t>
@@ -854,13 +860,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BJ91"/>
+  <dimension ref="A1:BL91"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:62">
+    <row r="1" spans="1:64">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1047,13 +1053,19 @@
       <c r="BJ1" s="1" t="s">
         <v>61</v>
       </c>
+      <c r="BK1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL1" s="1" t="s">
+        <v>63</v>
+      </c>
     </row>
-    <row r="2" spans="1:62">
+    <row r="2" spans="1:64">
       <c r="A2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C2">
         <v>7447749</v>
@@ -1146,7 +1158,7 @@
         <v>1285748</v>
       </c>
       <c r="AG2">
-        <v>4610</v>
+        <v>796495</v>
       </c>
       <c r="AH2">
         <v>4610</v>
@@ -1158,25 +1170,25 @@
         <v>4610</v>
       </c>
       <c r="AK2">
+        <v>4610</v>
+      </c>
+      <c r="AL2">
         <v>17249.999998275</v>
-      </c>
-      <c r="AL2">
-        <v>17250</v>
       </c>
       <c r="AM2">
         <v>17250</v>
       </c>
       <c r="AN2">
+        <v>17250</v>
+      </c>
+      <c r="AO2">
         <v>17249.999998275</v>
-      </c>
-      <c r="AO2">
-        <v>17250</v>
       </c>
       <c r="AP2">
         <v>17250</v>
       </c>
       <c r="AQ2">
-        <v>3880</v>
+        <v>17250</v>
       </c>
       <c r="AR2">
         <v>3880</v>
@@ -1194,13 +1206,13 @@
         <v>3880</v>
       </c>
       <c r="AW2">
+        <v>3880</v>
+      </c>
+      <c r="AX2">
         <v>15840</v>
       </c>
-      <c r="AX2">
+      <c r="AY2">
         <v>15840.000001584</v>
-      </c>
-      <c r="AY2">
-        <v>15840</v>
       </c>
       <c r="AZ2">
         <v>15840</v>
@@ -1212,10 +1224,10 @@
         <v>15840</v>
       </c>
       <c r="BC2">
+        <v>15840</v>
+      </c>
+      <c r="BD2">
         <v>10560.000001056</v>
-      </c>
-      <c r="BD2">
-        <v>10560</v>
       </c>
       <c r="BE2">
         <v>10560</v>
@@ -1227,21 +1239,27 @@
         <v>10560</v>
       </c>
       <c r="BH2">
+        <v>10560</v>
+      </c>
+      <c r="BI2">
         <v>10559.999998944</v>
-      </c>
-      <c r="BI2">
-        <v>8070</v>
       </c>
       <c r="BJ2">
         <v>8070</v>
       </c>
+      <c r="BK2">
+        <v>8070</v>
+      </c>
+      <c r="BL2">
+        <v>8070</v>
+      </c>
     </row>
-    <row r="3" spans="1:62">
+    <row r="3" spans="1:64">
       <c r="A3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B3" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C3">
         <v>36660120</v>
@@ -1334,7 +1352,7 @@
         <v>48925802</v>
       </c>
       <c r="AG3">
-        <v>88820</v>
+        <v>51897889</v>
       </c>
       <c r="AH3">
         <v>88820</v>
@@ -1346,28 +1364,28 @@
         <v>88820</v>
       </c>
       <c r="AK3">
+        <v>88820</v>
+      </c>
+      <c r="AL3">
         <v>61699.99999383</v>
-      </c>
-      <c r="AL3">
-        <v>61700</v>
       </c>
       <c r="AM3">
         <v>61700</v>
       </c>
       <c r="AN3">
+        <v>61700</v>
+      </c>
+      <c r="AO3">
         <v>61699.99999383</v>
-      </c>
-      <c r="AO3">
-        <v>61700</v>
       </c>
       <c r="AP3">
         <v>61700</v>
       </c>
       <c r="AQ3">
+        <v>61700</v>
+      </c>
+      <c r="AR3">
         <v>66150.000007</v>
-      </c>
-      <c r="AR3">
-        <v>66150</v>
       </c>
       <c r="AS3">
         <v>66150</v>
@@ -1382,13 +1400,13 @@
         <v>66150</v>
       </c>
       <c r="AW3">
+        <v>66150</v>
+      </c>
+      <c r="AX3">
         <v>76520</v>
       </c>
-      <c r="AX3">
+      <c r="AY3">
         <v>76520.00000765201</v>
-      </c>
-      <c r="AY3">
-        <v>76520</v>
       </c>
       <c r="AZ3">
         <v>76520</v>
@@ -1400,10 +1418,10 @@
         <v>76520</v>
       </c>
       <c r="BC3">
+        <v>76520</v>
+      </c>
+      <c r="BD3">
         <v>72130.00000721299</v>
-      </c>
-      <c r="BD3">
-        <v>72130</v>
       </c>
       <c r="BE3">
         <v>72130</v>
@@ -1415,21 +1433,27 @@
         <v>72130</v>
       </c>
       <c r="BH3">
+        <v>72130</v>
+      </c>
+      <c r="BI3">
         <v>72129.99999278699</v>
-      </c>
-      <c r="BI3">
-        <v>77810</v>
       </c>
       <c r="BJ3">
         <v>77810</v>
       </c>
+      <c r="BK3">
+        <v>77810</v>
+      </c>
+      <c r="BL3">
+        <v>77810</v>
+      </c>
     </row>
-    <row r="4" spans="1:62">
+    <row r="4" spans="1:64">
       <c r="A4" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B4" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C4">
         <v>3335496</v>
@@ -1522,7 +1546,7 @@
         <v>2119727</v>
       </c>
       <c r="AG4">
-        <v>5810</v>
+        <v>2292552</v>
       </c>
       <c r="AH4">
         <v>5810</v>
@@ -1534,28 +1558,28 @@
         <v>5810</v>
       </c>
       <c r="AK4">
+        <v>5810</v>
+      </c>
+      <c r="AL4">
         <v>5439.999999455999</v>
-      </c>
-      <c r="AL4">
-        <v>5440</v>
       </c>
       <c r="AM4">
         <v>5440</v>
       </c>
       <c r="AN4">
+        <v>5440</v>
+      </c>
+      <c r="AO4">
         <v>5439.999999456</v>
-      </c>
-      <c r="AO4">
-        <v>5440</v>
       </c>
       <c r="AP4">
         <v>5440</v>
       </c>
       <c r="AQ4">
+        <v>5440</v>
+      </c>
+      <c r="AR4">
         <v>5540.000001</v>
-      </c>
-      <c r="AR4">
-        <v>5540</v>
       </c>
       <c r="AS4">
         <v>5540</v>
@@ -1570,13 +1594,13 @@
         <v>5540</v>
       </c>
       <c r="AW4">
+        <v>5540</v>
+      </c>
+      <c r="AX4">
         <v>5220</v>
       </c>
-      <c r="AX4">
+      <c r="AY4">
         <v>5220.000000522</v>
-      </c>
-      <c r="AY4">
-        <v>5220</v>
       </c>
       <c r="AZ4">
         <v>5220</v>
@@ -1585,13 +1609,13 @@
         <v>5220</v>
       </c>
       <c r="BB4">
+        <v>5220</v>
+      </c>
+      <c r="BC4">
         <v>5219.999999999999</v>
       </c>
-      <c r="BC4">
+      <c r="BD4">
         <v>5650.000000565</v>
-      </c>
-      <c r="BD4">
-        <v>5650</v>
       </c>
       <c r="BE4">
         <v>5650</v>
@@ -1603,21 +1627,27 @@
         <v>5650</v>
       </c>
       <c r="BH4">
+        <v>5650</v>
+      </c>
+      <c r="BI4">
         <v>5649.999999435</v>
-      </c>
-      <c r="BI4">
-        <v>6110</v>
       </c>
       <c r="BJ4">
         <v>6110</v>
       </c>
+      <c r="BK4">
+        <v>6110</v>
+      </c>
+      <c r="BL4">
+        <v>6110</v>
+      </c>
     </row>
-    <row r="5" spans="1:62">
+    <row r="5" spans="1:64">
       <c r="A5" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B5" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="K5">
         <v>23859520</v>
@@ -1685,17 +1715,17 @@
       <c r="AF5">
         <v>10341278</v>
       </c>
-      <c r="AO5">
-        <v>40120</v>
+      <c r="AG5">
+        <v>10451514</v>
       </c>
       <c r="AP5">
         <v>40120</v>
       </c>
       <c r="AQ5">
+        <v>40120</v>
+      </c>
+      <c r="AR5">
         <v>40520.000004</v>
-      </c>
-      <c r="AR5">
-        <v>40520</v>
       </c>
       <c r="AS5">
         <v>40520</v>
@@ -1710,13 +1740,13 @@
         <v>40520</v>
       </c>
       <c r="AW5">
+        <v>40520</v>
+      </c>
+      <c r="AX5">
         <v>53940</v>
       </c>
-      <c r="AX5">
+      <c r="AY5">
         <v>53940.00000539399</v>
-      </c>
-      <c r="AY5">
-        <v>53940</v>
       </c>
       <c r="AZ5">
         <v>53940</v>
@@ -1728,10 +1758,10 @@
         <v>53940</v>
       </c>
       <c r="BC5">
+        <v>53940</v>
+      </c>
+      <c r="BD5">
         <v>56960.000005696</v>
-      </c>
-      <c r="BD5">
-        <v>56960</v>
       </c>
       <c r="BE5">
         <v>56960</v>
@@ -1743,21 +1773,27 @@
         <v>56960</v>
       </c>
       <c r="BH5">
+        <v>56960</v>
+      </c>
+      <c r="BI5">
         <v>56959.999994304</v>
-      </c>
-      <c r="BI5">
-        <v>53610</v>
       </c>
       <c r="BJ5">
         <v>53610</v>
       </c>
+      <c r="BK5">
+        <v>53610</v>
+      </c>
+      <c r="BL5">
+        <v>53610</v>
+      </c>
     </row>
-    <row r="6" spans="1:62">
+    <row r="6" spans="1:64">
       <c r="A6" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B6" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C6">
         <v>23616618</v>
@@ -1801,9 +1837,6 @@
       <c r="P6">
         <v>27042602</v>
       </c>
-      <c r="AG6">
-        <v>39510</v>
-      </c>
       <c r="AH6">
         <v>39510</v>
       </c>
@@ -1814,28 +1847,28 @@
         <v>39510</v>
       </c>
       <c r="AK6">
+        <v>39510</v>
+      </c>
+      <c r="AL6">
         <v>36179.999996382</v>
-      </c>
-      <c r="AL6">
-        <v>36180</v>
       </c>
       <c r="AM6">
         <v>36180</v>
       </c>
       <c r="AN6">
+        <v>36180</v>
+      </c>
+      <c r="AO6">
         <v>36179.999996382</v>
-      </c>
-      <c r="AO6">
-        <v>36180</v>
       </c>
       <c r="AP6">
         <v>36180</v>
       </c>
       <c r="AQ6">
+        <v>36180</v>
+      </c>
+      <c r="AR6">
         <v>38940.000004</v>
-      </c>
-      <c r="AR6">
-        <v>38940</v>
       </c>
       <c r="AS6">
         <v>38940</v>
@@ -1843,13 +1876,16 @@
       <c r="AT6">
         <v>38940</v>
       </c>
+      <c r="AU6">
+        <v>38940</v>
+      </c>
     </row>
-    <row r="7" spans="1:62">
+    <row r="7" spans="1:64">
       <c r="A7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C7">
         <v>20325553</v>
@@ -1875,9 +1911,6 @@
       <c r="J7">
         <v>23230846</v>
       </c>
-      <c r="AG7">
-        <v>47520</v>
-      </c>
       <c r="AH7">
         <v>47520</v>
       </c>
@@ -1888,24 +1921,27 @@
         <v>47520</v>
       </c>
       <c r="AK7">
+        <v>47520</v>
+      </c>
+      <c r="AL7">
         <v>40119.999995988</v>
-      </c>
-      <c r="AL7">
-        <v>40120</v>
       </c>
       <c r="AM7">
         <v>40120</v>
       </c>
       <c r="AN7">
+        <v>40120</v>
+      </c>
+      <c r="AO7">
         <v>40119.999995988</v>
       </c>
     </row>
-    <row r="8" spans="1:62">
+    <row r="8" spans="1:64">
       <c r="A8" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B8" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C8">
         <v>9657886</v>
@@ -1998,7 +2034,7 @@
         <v>11232851</v>
       </c>
       <c r="AG8">
-        <v>13840</v>
+        <v>10773302</v>
       </c>
       <c r="AH8">
         <v>13840</v>
@@ -2010,28 +2046,28 @@
         <v>13840</v>
       </c>
       <c r="AK8">
+        <v>13840</v>
+      </c>
+      <c r="AL8">
         <v>18889.999998111</v>
-      </c>
-      <c r="AL8">
-        <v>18890</v>
       </c>
       <c r="AM8">
         <v>18890</v>
       </c>
       <c r="AN8">
+        <v>18890</v>
+      </c>
+      <c r="AO8">
         <v>18889.999998111</v>
-      </c>
-      <c r="AO8">
-        <v>18890</v>
       </c>
       <c r="AP8">
         <v>18890</v>
       </c>
       <c r="AQ8">
+        <v>18890</v>
+      </c>
+      <c r="AR8">
         <v>26830.000003</v>
-      </c>
-      <c r="AR8">
-        <v>26830</v>
       </c>
       <c r="AS8">
         <v>26830</v>
@@ -2046,13 +2082,13 @@
         <v>26830</v>
       </c>
       <c r="AW8">
+        <v>26830</v>
+      </c>
+      <c r="AX8">
         <v>22480</v>
       </c>
-      <c r="AX8">
+      <c r="AY8">
         <v>22480.000002248</v>
-      </c>
-      <c r="AY8">
-        <v>22480</v>
       </c>
       <c r="AZ8">
         <v>22480</v>
@@ -2064,10 +2100,10 @@
         <v>22480</v>
       </c>
       <c r="BC8">
+        <v>22480</v>
+      </c>
+      <c r="BD8">
         <v>21510.000002151</v>
-      </c>
-      <c r="BD8">
-        <v>21510</v>
       </c>
       <c r="BE8">
         <v>21510</v>
@@ -2079,21 +2115,27 @@
         <v>21510</v>
       </c>
       <c r="BH8">
+        <v>21510</v>
+      </c>
+      <c r="BI8">
         <v>21509.999997849</v>
-      </c>
-      <c r="BI8">
-        <v>23040</v>
       </c>
       <c r="BJ8">
         <v>23040</v>
       </c>
+      <c r="BK8">
+        <v>23040</v>
+      </c>
+      <c r="BL8">
+        <v>23040</v>
+      </c>
     </row>
-    <row r="9" spans="1:62">
+    <row r="9" spans="1:64">
       <c r="A9" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B9" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="Y9">
         <v>497472</v>
@@ -2119,11 +2161,11 @@
       <c r="AF9">
         <v>525885</v>
       </c>
-      <c r="BC9">
+      <c r="AG9">
+        <v>561071</v>
+      </c>
+      <c r="BD9">
         <v>610.0000000609999</v>
-      </c>
-      <c r="BD9">
-        <v>610</v>
       </c>
       <c r="BE9">
         <v>610</v>
@@ -2135,21 +2177,27 @@
         <v>610</v>
       </c>
       <c r="BH9">
+        <v>610</v>
+      </c>
+      <c r="BI9">
         <v>609.999999939</v>
-      </c>
-      <c r="BI9">
-        <v>610</v>
       </c>
       <c r="BJ9">
         <v>610</v>
       </c>
+      <c r="BK9">
+        <v>610</v>
+      </c>
+      <c r="BL9">
+        <v>610</v>
+      </c>
     </row>
-    <row r="10" spans="1:62">
+    <row r="10" spans="1:64">
       <c r="A10" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B10" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C10">
         <v>179145</v>
@@ -2242,7 +2290,7 @@
         <v>129253</v>
       </c>
       <c r="AG10">
-        <v>880</v>
+        <v>120942</v>
       </c>
       <c r="AH10">
         <v>880</v>
@@ -2254,25 +2302,25 @@
         <v>880</v>
       </c>
       <c r="AK10">
+        <v>880</v>
+      </c>
+      <c r="AL10">
         <v>239.999999976</v>
-      </c>
-      <c r="AL10">
-        <v>240</v>
       </c>
       <c r="AM10">
         <v>240</v>
       </c>
       <c r="AN10">
+        <v>240</v>
+      </c>
+      <c r="AO10">
         <v>239.999999976</v>
-      </c>
-      <c r="AO10">
-        <v>240</v>
       </c>
       <c r="AP10">
         <v>240</v>
       </c>
       <c r="AQ10">
-        <v>420</v>
+        <v>240</v>
       </c>
       <c r="AR10">
         <v>420</v>
@@ -2290,13 +2338,13 @@
         <v>420</v>
       </c>
       <c r="AW10">
+        <v>420</v>
+      </c>
+      <c r="AX10">
         <v>250</v>
       </c>
-      <c r="AX10">
+      <c r="AY10">
         <v>250.000000025</v>
-      </c>
-      <c r="AY10">
-        <v>250</v>
       </c>
       <c r="AZ10">
         <v>250</v>
@@ -2308,10 +2356,10 @@
         <v>250</v>
       </c>
       <c r="BC10">
+        <v>250</v>
+      </c>
+      <c r="BD10">
         <v>260.000000026</v>
-      </c>
-      <c r="BD10">
-        <v>260</v>
       </c>
       <c r="BE10">
         <v>260</v>
@@ -2323,21 +2371,27 @@
         <v>260</v>
       </c>
       <c r="BH10">
+        <v>260</v>
+      </c>
+      <c r="BI10">
         <v>259.999999974</v>
-      </c>
-      <c r="BI10">
-        <v>360</v>
       </c>
       <c r="BJ10">
         <v>360</v>
       </c>
+      <c r="BK10">
+        <v>360</v>
+      </c>
+      <c r="BL10">
+        <v>360</v>
+      </c>
     </row>
-    <row r="11" spans="1:62">
+    <row r="11" spans="1:64">
       <c r="A11" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B11" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C11">
         <v>5920052</v>
@@ -2430,7 +2484,7 @@
         <v>4591709</v>
       </c>
       <c r="AG11">
-        <v>3650</v>
+        <v>6630159</v>
       </c>
       <c r="AH11">
         <v>3650</v>
@@ -2442,19 +2496,19 @@
         <v>3650</v>
       </c>
       <c r="AK11">
+        <v>3650</v>
+      </c>
+      <c r="AL11">
         <v>4059.999999593999</v>
       </c>
-      <c r="AL11">
+      <c r="AM11">
         <v>4059.999999999999</v>
       </c>
-      <c r="AM11">
+      <c r="AN11">
         <v>4060</v>
       </c>
-      <c r="AN11">
+      <c r="AO11">
         <v>4059.999999594</v>
-      </c>
-      <c r="AO11">
-        <v>4060</v>
       </c>
       <c r="AP11">
         <v>4060</v>
@@ -2478,13 +2532,13 @@
         <v>4060</v>
       </c>
       <c r="AW11">
+        <v>4060</v>
+      </c>
+      <c r="AX11">
         <v>6610</v>
       </c>
-      <c r="AX11">
+      <c r="AY11">
         <v>6610.000000661001</v>
-      </c>
-      <c r="AY11">
-        <v>6610</v>
       </c>
       <c r="AZ11">
         <v>6610</v>
@@ -2496,10 +2550,10 @@
         <v>6610</v>
       </c>
       <c r="BC11">
+        <v>6610</v>
+      </c>
+      <c r="BD11">
         <v>4790.000000479</v>
-      </c>
-      <c r="BD11">
-        <v>4790</v>
       </c>
       <c r="BE11">
         <v>4790</v>
@@ -2511,21 +2565,27 @@
         <v>4790</v>
       </c>
       <c r="BH11">
+        <v>4790</v>
+      </c>
+      <c r="BI11">
         <v>4789.999999521</v>
-      </c>
-      <c r="BI11">
-        <v>4950</v>
       </c>
       <c r="BJ11">
         <v>4950</v>
       </c>
+      <c r="BK11">
+        <v>4950</v>
+      </c>
+      <c r="BL11">
+        <v>4950</v>
+      </c>
     </row>
-    <row r="12" spans="1:62">
+    <row r="12" spans="1:64">
       <c r="A12" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B12" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C12">
         <v>3367229</v>
@@ -2618,7 +2678,7 @@
         <v>2423770</v>
       </c>
       <c r="AG12">
-        <v>5380</v>
+        <v>2554031</v>
       </c>
       <c r="AH12">
         <v>5380</v>
@@ -2630,28 +2690,28 @@
         <v>5380</v>
       </c>
       <c r="AK12">
+        <v>5380</v>
+      </c>
+      <c r="AL12">
         <v>3329.999999667</v>
-      </c>
-      <c r="AL12">
-        <v>3330</v>
       </c>
       <c r="AM12">
         <v>3330</v>
       </c>
       <c r="AN12">
+        <v>3330</v>
+      </c>
+      <c r="AO12">
         <v>3329.999999667</v>
-      </c>
-      <c r="AO12">
-        <v>3330</v>
       </c>
       <c r="AP12">
         <v>3330</v>
       </c>
       <c r="AQ12">
+        <v>3330</v>
+      </c>
+      <c r="AR12">
         <v>5210.000001</v>
-      </c>
-      <c r="AR12">
-        <v>5210</v>
       </c>
       <c r="AS12">
         <v>5210</v>
@@ -2666,13 +2726,13 @@
         <v>5210</v>
       </c>
       <c r="AW12">
+        <v>5210</v>
+      </c>
+      <c r="AX12">
         <v>6300</v>
       </c>
-      <c r="AX12">
+      <c r="AY12">
         <v>6300.00000063</v>
-      </c>
-      <c r="AY12">
-        <v>6300</v>
       </c>
       <c r="AZ12">
         <v>6300</v>
@@ -2681,13 +2741,13 @@
         <v>6300</v>
       </c>
       <c r="BB12">
+        <v>6300</v>
+      </c>
+      <c r="BC12">
         <v>6299.999999999999</v>
       </c>
-      <c r="BC12">
+      <c r="BD12">
         <v>6840.000000684</v>
-      </c>
-      <c r="BD12">
-        <v>6840</v>
       </c>
       <c r="BE12">
         <v>6840</v>
@@ -2699,21 +2759,27 @@
         <v>6840</v>
       </c>
       <c r="BH12">
+        <v>6840</v>
+      </c>
+      <c r="BI12">
         <v>6839.999999315999</v>
-      </c>
-      <c r="BI12">
-        <v>6310</v>
       </c>
       <c r="BJ12">
         <v>6310</v>
       </c>
+      <c r="BK12">
+        <v>6310</v>
+      </c>
+      <c r="BL12">
+        <v>6310</v>
+      </c>
     </row>
-    <row r="13" spans="1:62">
+    <row r="13" spans="1:64">
       <c r="A13" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B13" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C13">
         <v>6309570</v>
@@ -2806,7 +2872,7 @@
         <v>6728766</v>
       </c>
       <c r="AG13">
-        <v>11920</v>
+        <v>6934051</v>
       </c>
       <c r="AH13">
         <v>11920</v>
@@ -2818,28 +2884,28 @@
         <v>11920</v>
       </c>
       <c r="AK13">
+        <v>11920</v>
+      </c>
+      <c r="AL13">
         <v>13049.999998695</v>
-      </c>
-      <c r="AL13">
-        <v>13050</v>
       </c>
       <c r="AM13">
         <v>13050</v>
       </c>
       <c r="AN13">
+        <v>13050</v>
+      </c>
+      <c r="AO13">
         <v>13049.999998695</v>
-      </c>
-      <c r="AO13">
-        <v>13050</v>
       </c>
       <c r="AP13">
         <v>13050</v>
       </c>
       <c r="AQ13">
+        <v>13050</v>
+      </c>
+      <c r="AR13">
         <v>13970.000001</v>
-      </c>
-      <c r="AR13">
-        <v>13970</v>
       </c>
       <c r="AS13">
         <v>13970</v>
@@ -2854,13 +2920,13 @@
         <v>13970</v>
       </c>
       <c r="AW13">
+        <v>13970</v>
+      </c>
+      <c r="AX13">
         <v>14520</v>
       </c>
-      <c r="AX13">
+      <c r="AY13">
         <v>14520.000001452</v>
-      </c>
-      <c r="AY13">
-        <v>14520</v>
       </c>
       <c r="AZ13">
         <v>14520</v>
@@ -2872,10 +2938,10 @@
         <v>14520</v>
       </c>
       <c r="BC13">
+        <v>14520</v>
+      </c>
+      <c r="BD13">
         <v>17180.000001718</v>
-      </c>
-      <c r="BD13">
-        <v>17180</v>
       </c>
       <c r="BE13">
         <v>17180</v>
@@ -2887,21 +2953,27 @@
         <v>17180</v>
       </c>
       <c r="BH13">
+        <v>17180</v>
+      </c>
+      <c r="BI13">
         <v>17179.999998282</v>
-      </c>
-      <c r="BI13">
-        <v>16910</v>
       </c>
       <c r="BJ13">
         <v>16910</v>
       </c>
+      <c r="BK13">
+        <v>16910</v>
+      </c>
+      <c r="BL13">
+        <v>16910</v>
+      </c>
     </row>
-    <row r="14" spans="1:62">
+    <row r="14" spans="1:64">
       <c r="A14" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B14" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C14">
         <v>3130002</v>
@@ -2994,7 +3066,7 @@
         <v>2941968</v>
       </c>
       <c r="AG14">
-        <v>5080</v>
+        <v>3278249</v>
       </c>
       <c r="AH14">
         <v>5080</v>
@@ -3006,28 +3078,28 @@
         <v>5080</v>
       </c>
       <c r="AK14">
+        <v>5080</v>
+      </c>
+      <c r="AL14">
         <v>5779.999999422001</v>
-      </c>
-      <c r="AL14">
-        <v>5780</v>
       </c>
       <c r="AM14">
         <v>5780</v>
       </c>
       <c r="AN14">
+        <v>5780</v>
+      </c>
+      <c r="AO14">
         <v>5779.999999422001</v>
-      </c>
-      <c r="AO14">
-        <v>5780</v>
       </c>
       <c r="AP14">
         <v>5780</v>
       </c>
       <c r="AQ14">
+        <v>5780</v>
+      </c>
+      <c r="AR14">
         <v>6620.000001</v>
-      </c>
-      <c r="AR14">
-        <v>6620</v>
       </c>
       <c r="AS14">
         <v>6620</v>
@@ -3042,13 +3114,13 @@
         <v>6620</v>
       </c>
       <c r="AW14">
+        <v>6620</v>
+      </c>
+      <c r="AX14">
         <v>7340</v>
       </c>
-      <c r="AX14">
+      <c r="AY14">
         <v>7340.000000734</v>
-      </c>
-      <c r="AY14">
-        <v>7340</v>
       </c>
       <c r="AZ14">
         <v>7340</v>
@@ -3060,10 +3132,10 @@
         <v>7340</v>
       </c>
       <c r="BC14">
+        <v>7340</v>
+      </c>
+      <c r="BD14">
         <v>6030.000000603</v>
-      </c>
-      <c r="BD14">
-        <v>6030</v>
       </c>
       <c r="BE14">
         <v>6030</v>
@@ -3075,21 +3147,27 @@
         <v>6030</v>
       </c>
       <c r="BH14">
+        <v>6030</v>
+      </c>
+      <c r="BI14">
         <v>6029.999999397</v>
-      </c>
-      <c r="BI14">
-        <v>7620</v>
       </c>
       <c r="BJ14">
         <v>7620</v>
       </c>
+      <c r="BK14">
+        <v>7620</v>
+      </c>
+      <c r="BL14">
+        <v>7620</v>
+      </c>
     </row>
-    <row r="15" spans="1:62">
+    <row r="15" spans="1:64">
       <c r="A15" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B15" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C15">
         <v>11142410</v>
@@ -3182,7 +3260,7 @@
         <v>10150213</v>
       </c>
       <c r="AG15">
-        <v>22770</v>
+        <v>11055891</v>
       </c>
       <c r="AH15">
         <v>22770</v>
@@ -3194,28 +3272,28 @@
         <v>22770</v>
       </c>
       <c r="AK15">
+        <v>22770</v>
+      </c>
+      <c r="AL15">
         <v>22159.999997784</v>
-      </c>
-      <c r="AL15">
-        <v>22160</v>
       </c>
       <c r="AM15">
         <v>22160</v>
       </c>
       <c r="AN15">
+        <v>22160</v>
+      </c>
+      <c r="AO15">
         <v>22159.999997784</v>
-      </c>
-      <c r="AO15">
-        <v>22160</v>
       </c>
       <c r="AP15">
         <v>22160</v>
       </c>
       <c r="AQ15">
+        <v>22160</v>
+      </c>
+      <c r="AR15">
         <v>24020.000002</v>
-      </c>
-      <c r="AR15">
-        <v>24020</v>
       </c>
       <c r="AS15">
         <v>24020</v>
@@ -3224,19 +3302,19 @@
         <v>24020</v>
       </c>
       <c r="AU15">
-        <v>18690</v>
+        <v>24020</v>
       </c>
       <c r="AV15">
         <v>18690</v>
       </c>
       <c r="AW15">
+        <v>18690</v>
+      </c>
+      <c r="AX15">
         <v>3360</v>
       </c>
-      <c r="AX15">
+      <c r="AY15">
         <v>3360.000000336</v>
-      </c>
-      <c r="AY15">
-        <v>3360</v>
       </c>
       <c r="AZ15">
         <v>3360</v>
@@ -3248,10 +3326,10 @@
         <v>3360</v>
       </c>
       <c r="BC15">
+        <v>3360</v>
+      </c>
+      <c r="BD15">
         <v>20460.000002046</v>
-      </c>
-      <c r="BD15">
-        <v>20460</v>
       </c>
       <c r="BE15">
         <v>20460</v>
@@ -3263,21 +3341,27 @@
         <v>20460</v>
       </c>
       <c r="BH15">
+        <v>20460</v>
+      </c>
+      <c r="BI15">
         <v>20459.999997954</v>
-      </c>
-      <c r="BI15">
-        <v>22020</v>
       </c>
       <c r="BJ15">
         <v>22020</v>
       </c>
+      <c r="BK15">
+        <v>22020</v>
+      </c>
+      <c r="BL15">
+        <v>22020</v>
+      </c>
     </row>
-    <row r="16" spans="1:62">
+    <row r="16" spans="1:64">
       <c r="A16" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B16" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="Q16">
         <v>76236</v>
@@ -3327,20 +3411,20 @@
       <c r="AF16">
         <v>1267797</v>
       </c>
-      <c r="AU16">
-        <v>5330</v>
+      <c r="AG16">
+        <v>1310920</v>
       </c>
       <c r="AV16">
         <v>5330</v>
       </c>
       <c r="AW16">
+        <v>5330</v>
+      </c>
+      <c r="AX16">
         <v>19320</v>
       </c>
-      <c r="AX16">
+      <c r="AY16">
         <v>19320.000001932</v>
-      </c>
-      <c r="AY16">
-        <v>19320</v>
       </c>
       <c r="AZ16">
         <v>19320</v>
@@ -3352,10 +3436,10 @@
         <v>19320</v>
       </c>
       <c r="BC16">
+        <v>19320</v>
+      </c>
+      <c r="BD16">
         <v>2200.00000022</v>
-      </c>
-      <c r="BD16">
-        <v>2200</v>
       </c>
       <c r="BE16">
         <v>2200</v>
@@ -3367,21 +3451,27 @@
         <v>2200</v>
       </c>
       <c r="BH16">
+        <v>2200</v>
+      </c>
+      <c r="BI16">
         <v>2199.99999978</v>
-      </c>
-      <c r="BI16">
-        <v>2460</v>
       </c>
       <c r="BJ16">
         <v>2460</v>
       </c>
+      <c r="BK16">
+        <v>2460</v>
+      </c>
+      <c r="BL16">
+        <v>2460</v>
+      </c>
     </row>
-    <row r="17" spans="1:62">
+    <row r="17" spans="1:64">
       <c r="A17" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B17" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C17">
         <v>328084</v>
@@ -3474,7 +3564,7 @@
         <v>509743</v>
       </c>
       <c r="AG17">
-        <v>1210</v>
+        <v>473319</v>
       </c>
       <c r="AH17">
         <v>1210</v>
@@ -3486,25 +3576,25 @@
         <v>1210</v>
       </c>
       <c r="AK17">
+        <v>1210</v>
+      </c>
+      <c r="AL17">
         <v>1219.999999878</v>
-      </c>
-      <c r="AL17">
-        <v>1220</v>
       </c>
       <c r="AM17">
         <v>1220</v>
       </c>
       <c r="AN17">
+        <v>1220</v>
+      </c>
+      <c r="AO17">
         <v>1219.999999878</v>
-      </c>
-      <c r="AO17">
-        <v>1220</v>
       </c>
       <c r="AP17">
         <v>1220</v>
       </c>
       <c r="AQ17">
-        <v>1780</v>
+        <v>1220</v>
       </c>
       <c r="AR17">
         <v>1780</v>
@@ -3522,13 +3612,13 @@
         <v>1780</v>
       </c>
       <c r="AW17">
+        <v>1780</v>
+      </c>
+      <c r="AX17">
         <v>900</v>
       </c>
-      <c r="AX17">
+      <c r="AY17">
         <v>900.00000009</v>
-      </c>
-      <c r="AY17">
-        <v>900</v>
       </c>
       <c r="AZ17">
         <v>900</v>
@@ -3540,10 +3630,10 @@
         <v>900</v>
       </c>
       <c r="BC17">
+        <v>900</v>
+      </c>
+      <c r="BD17">
         <v>470.000000047</v>
-      </c>
-      <c r="BD17">
-        <v>470</v>
       </c>
       <c r="BE17">
         <v>470</v>
@@ -3555,21 +3645,27 @@
         <v>470</v>
       </c>
       <c r="BH17">
+        <v>470</v>
+      </c>
+      <c r="BI17">
         <v>469.999999953</v>
-      </c>
-      <c r="BI17">
-        <v>530</v>
       </c>
       <c r="BJ17">
         <v>530</v>
       </c>
+      <c r="BK17">
+        <v>530</v>
+      </c>
+      <c r="BL17">
+        <v>530</v>
+      </c>
     </row>
-    <row r="18" spans="1:62">
+    <row r="18" spans="1:64">
       <c r="A18" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B18" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C18">
         <v>4367883</v>
@@ -3644,7 +3740,7 @@
         <v>5025024</v>
       </c>
       <c r="AG18">
-        <v>11260</v>
+        <v>5440678</v>
       </c>
       <c r="AH18">
         <v>11260</v>
@@ -3656,31 +3752,31 @@
         <v>11260</v>
       </c>
       <c r="AK18">
+        <v>11260</v>
+      </c>
+      <c r="AL18">
         <v>9459.999999054</v>
-      </c>
-      <c r="AL18">
-        <v>9460</v>
       </c>
       <c r="AM18">
         <v>9460</v>
       </c>
       <c r="AN18">
+        <v>9460</v>
+      </c>
+      <c r="AO18">
         <v>9459.999999054</v>
-      </c>
-      <c r="AU18">
-        <v>11330</v>
       </c>
       <c r="AV18">
         <v>11330</v>
       </c>
       <c r="AW18">
+        <v>11330</v>
+      </c>
+      <c r="AX18">
         <v>9360</v>
       </c>
-      <c r="AX18">
+      <c r="AY18">
         <v>9360.000000936001</v>
-      </c>
-      <c r="AY18">
-        <v>9360</v>
       </c>
       <c r="AZ18">
         <v>9360</v>
@@ -3692,10 +3788,10 @@
         <v>9360</v>
       </c>
       <c r="BC18">
+        <v>9360</v>
+      </c>
+      <c r="BD18">
         <v>10430.000001043</v>
-      </c>
-      <c r="BD18">
-        <v>10430</v>
       </c>
       <c r="BE18">
         <v>10430</v>
@@ -3707,21 +3803,27 @@
         <v>10430</v>
       </c>
       <c r="BH18">
+        <v>10430</v>
+      </c>
+      <c r="BI18">
         <v>10429.999998957</v>
-      </c>
-      <c r="BI18">
-        <v>12370</v>
       </c>
       <c r="BJ18">
         <v>12370</v>
       </c>
+      <c r="BK18">
+        <v>12370</v>
+      </c>
+      <c r="BL18">
+        <v>12370</v>
+      </c>
     </row>
-    <row r="19" spans="1:62">
+    <row r="19" spans="1:64">
       <c r="A19" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B19" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="K19">
         <v>5668783</v>
@@ -3741,17 +3843,14 @@
       <c r="P19">
         <v>4741793</v>
       </c>
-      <c r="AO19">
-        <v>9460</v>
-      </c>
       <c r="AP19">
         <v>9460</v>
       </c>
       <c r="AQ19">
+        <v>9460</v>
+      </c>
+      <c r="AR19">
         <v>11330.000001</v>
-      </c>
-      <c r="AR19">
-        <v>11330</v>
       </c>
       <c r="AS19">
         <v>11330</v>
@@ -3759,13 +3858,16 @@
       <c r="AT19">
         <v>11330</v>
       </c>
+      <c r="AU19">
+        <v>11330</v>
+      </c>
     </row>
-    <row r="20" spans="1:62">
+    <row r="20" spans="1:64">
       <c r="A20" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B20" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C20">
         <v>638564</v>
@@ -3858,7 +3960,7 @@
         <v>314508</v>
       </c>
       <c r="AG20">
-        <v>1470</v>
+        <v>362590</v>
       </c>
       <c r="AH20">
         <v>1470</v>
@@ -3870,25 +3972,25 @@
         <v>1470</v>
       </c>
       <c r="AK20">
+        <v>1470</v>
+      </c>
+      <c r="AL20">
         <v>1669.999999833</v>
-      </c>
-      <c r="AL20">
-        <v>1670</v>
       </c>
       <c r="AM20">
         <v>1670</v>
       </c>
       <c r="AN20">
+        <v>1670</v>
+      </c>
+      <c r="AO20">
         <v>1669.999999833</v>
-      </c>
-      <c r="AO20">
-        <v>1670</v>
       </c>
       <c r="AP20">
         <v>1670</v>
       </c>
       <c r="AQ20">
-        <v>1580</v>
+        <v>1670</v>
       </c>
       <c r="AR20">
         <v>1580</v>
@@ -3906,13 +4008,13 @@
         <v>1580</v>
       </c>
       <c r="AW20">
+        <v>1580</v>
+      </c>
+      <c r="AX20">
         <v>1670</v>
       </c>
-      <c r="AX20">
+      <c r="AY20">
         <v>1670.000000167</v>
-      </c>
-      <c r="AY20">
-        <v>1670</v>
       </c>
       <c r="AZ20">
         <v>1670</v>
@@ -3924,10 +4026,10 @@
         <v>1670</v>
       </c>
       <c r="BC20">
+        <v>1670</v>
+      </c>
+      <c r="BD20">
         <v>570.000000057</v>
-      </c>
-      <c r="BD20">
-        <v>570</v>
       </c>
       <c r="BE20">
         <v>570</v>
@@ -3939,21 +4041,27 @@
         <v>570</v>
       </c>
       <c r="BH20">
+        <v>570</v>
+      </c>
+      <c r="BI20">
         <v>569.9999999429999</v>
-      </c>
-      <c r="BI20">
-        <v>620</v>
       </c>
       <c r="BJ20">
         <v>620</v>
       </c>
+      <c r="BK20">
+        <v>620</v>
+      </c>
+      <c r="BL20">
+        <v>620</v>
+      </c>
     </row>
-    <row r="21" spans="1:62">
+    <row r="21" spans="1:64">
       <c r="A21" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B21" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C21">
         <v>3715698</v>
@@ -4046,7 +4154,7 @@
         <v>2956003</v>
       </c>
       <c r="AG21">
-        <v>5010</v>
+        <v>3235645</v>
       </c>
       <c r="AH21">
         <v>5010</v>
@@ -4058,25 +4166,25 @@
         <v>5010</v>
       </c>
       <c r="AK21">
+        <v>5010</v>
+      </c>
+      <c r="AL21">
         <v>4969.999999503</v>
-      </c>
-      <c r="AL21">
-        <v>4970</v>
       </c>
       <c r="AM21">
         <v>4970</v>
       </c>
       <c r="AN21">
+        <v>4970</v>
+      </c>
+      <c r="AO21">
         <v>4969.999999503</v>
-      </c>
-      <c r="AO21">
-        <v>4970</v>
       </c>
       <c r="AP21">
         <v>4970</v>
       </c>
       <c r="AQ21">
-        <v>4920</v>
+        <v>4970</v>
       </c>
       <c r="AR21">
         <v>4920</v>
@@ -4094,13 +4202,13 @@
         <v>4920</v>
       </c>
       <c r="AW21">
+        <v>4920</v>
+      </c>
+      <c r="AX21">
         <v>6180</v>
       </c>
-      <c r="AX21">
+      <c r="AY21">
         <v>6180.000000618</v>
-      </c>
-      <c r="AY21">
-        <v>6180</v>
       </c>
       <c r="AZ21">
         <v>6180</v>
@@ -4112,10 +4220,10 @@
         <v>6180</v>
       </c>
       <c r="BC21">
+        <v>6180</v>
+      </c>
+      <c r="BD21">
         <v>5090.000000509</v>
-      </c>
-      <c r="BD21">
-        <v>5090</v>
       </c>
       <c r="BE21">
         <v>5090</v>
@@ -4127,21 +4235,27 @@
         <v>5090</v>
       </c>
       <c r="BH21">
+        <v>5090</v>
+      </c>
+      <c r="BI21">
         <v>5089.999999490999</v>
-      </c>
-      <c r="BI21">
-        <v>5070</v>
       </c>
       <c r="BJ21">
         <v>5070</v>
       </c>
+      <c r="BK21">
+        <v>5070</v>
+      </c>
+      <c r="BL21">
+        <v>5070</v>
+      </c>
     </row>
-    <row r="22" spans="1:62">
+    <row r="22" spans="1:64">
       <c r="A22" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B22" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C22">
         <v>24443176</v>
@@ -4234,7 +4348,7 @@
         <v>25177576</v>
       </c>
       <c r="AG22">
-        <v>36350</v>
+        <v>26108197</v>
       </c>
       <c r="AH22">
         <v>36350</v>
@@ -4246,28 +4360,28 @@
         <v>36350</v>
       </c>
       <c r="AK22">
+        <v>36350</v>
+      </c>
+      <c r="AL22">
         <v>43689.999995631</v>
-      </c>
-      <c r="AL22">
-        <v>43690</v>
       </c>
       <c r="AM22">
         <v>43690</v>
       </c>
       <c r="AN22">
+        <v>43690</v>
+      </c>
+      <c r="AO22">
         <v>43689.99999563101</v>
-      </c>
-      <c r="AO22">
-        <v>43690</v>
       </c>
       <c r="AP22">
         <v>43690</v>
       </c>
       <c r="AQ22">
+        <v>43690</v>
+      </c>
+      <c r="AR22">
         <v>56880.000006</v>
-      </c>
-      <c r="AR22">
-        <v>56880</v>
       </c>
       <c r="AS22">
         <v>56880</v>
@@ -4282,13 +4396,13 @@
         <v>56880</v>
       </c>
       <c r="AW22">
+        <v>56880</v>
+      </c>
+      <c r="AX22">
         <v>56310</v>
       </c>
-      <c r="AX22">
+      <c r="AY22">
         <v>56310.00000563099</v>
-      </c>
-      <c r="AY22">
-        <v>56310</v>
       </c>
       <c r="AZ22">
         <v>56310</v>
@@ -4300,10 +4414,10 @@
         <v>56310</v>
       </c>
       <c r="BC22">
+        <v>56310</v>
+      </c>
+      <c r="BD22">
         <v>43240.000004324</v>
-      </c>
-      <c r="BD22">
-        <v>43240</v>
       </c>
       <c r="BE22">
         <v>43240</v>
@@ -4315,21 +4429,27 @@
         <v>43240</v>
       </c>
       <c r="BH22">
+        <v>43240</v>
+      </c>
+      <c r="BI22">
         <v>43239.99999567599</v>
-      </c>
-      <c r="BI22">
-        <v>43830</v>
       </c>
       <c r="BJ22">
         <v>43830</v>
       </c>
+      <c r="BK22">
+        <v>43830</v>
+      </c>
+      <c r="BL22">
+        <v>43830</v>
+      </c>
     </row>
-    <row r="23" spans="1:62">
+    <row r="23" spans="1:64">
       <c r="A23" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B23" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C23">
         <v>38382219</v>
@@ -4422,7 +4542,7 @@
         <v>51564889</v>
       </c>
       <c r="AG23">
-        <v>88000</v>
+        <v>54149408</v>
       </c>
       <c r="AH23">
         <v>88000</v>
@@ -4434,28 +4554,28 @@
         <v>88000</v>
       </c>
       <c r="AK23">
+        <v>88000</v>
+      </c>
+      <c r="AL23">
         <v>87959.99999120401</v>
-      </c>
-      <c r="AL23">
-        <v>87960</v>
       </c>
       <c r="AM23">
         <v>87960</v>
       </c>
       <c r="AN23">
+        <v>87960</v>
+      </c>
+      <c r="AO23">
         <v>87959.99999120399</v>
-      </c>
-      <c r="AO23">
-        <v>87960</v>
       </c>
       <c r="AP23">
         <v>87960</v>
       </c>
       <c r="AQ23">
+        <v>87960</v>
+      </c>
+      <c r="AR23">
         <v>100110.00001</v>
-      </c>
-      <c r="AR23">
-        <v>100110</v>
       </c>
       <c r="AS23">
         <v>100110</v>
@@ -4470,13 +4590,13 @@
         <v>100110</v>
       </c>
       <c r="AW23">
+        <v>100110</v>
+      </c>
+      <c r="AX23">
         <v>95380</v>
       </c>
-      <c r="AX23">
+      <c r="AY23">
         <v>95380.00000953799</v>
-      </c>
-      <c r="AY23">
-        <v>95380</v>
       </c>
       <c r="AZ23">
         <v>95380</v>
@@ -4488,10 +4608,10 @@
         <v>95380</v>
       </c>
       <c r="BC23">
+        <v>95380</v>
+      </c>
+      <c r="BD23">
         <v>96000.00000959999</v>
-      </c>
-      <c r="BD23">
-        <v>96000</v>
       </c>
       <c r="BE23">
         <v>96000</v>
@@ -4503,21 +4623,27 @@
         <v>96000</v>
       </c>
       <c r="BH23">
+        <v>96000</v>
+      </c>
+      <c r="BI23">
         <v>95999.99999040001</v>
-      </c>
-      <c r="BI23">
-        <v>91590</v>
       </c>
       <c r="BJ23">
         <v>91590</v>
       </c>
+      <c r="BK23">
+        <v>91590</v>
+      </c>
+      <c r="BL23">
+        <v>91590</v>
+      </c>
     </row>
-    <row r="24" spans="1:62">
+    <row r="24" spans="1:64">
       <c r="A24" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B24" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C24">
         <v>2931614</v>
@@ -4610,7 +4736,7 @@
         <v>3780240</v>
       </c>
       <c r="AG24">
-        <v>6370</v>
+        <v>4027219</v>
       </c>
       <c r="AH24">
         <v>6370</v>
@@ -4622,28 +4748,28 @@
         <v>6370</v>
       </c>
       <c r="AK24">
+        <v>6370</v>
+      </c>
+      <c r="AL24">
         <v>5839.999999416002</v>
-      </c>
-      <c r="AL24">
-        <v>5840</v>
       </c>
       <c r="AM24">
         <v>5840</v>
       </c>
       <c r="AN24">
+        <v>5840</v>
+      </c>
+      <c r="AO24">
         <v>5839.999999416001</v>
-      </c>
-      <c r="AO24">
-        <v>5840</v>
       </c>
       <c r="AP24">
         <v>5840</v>
       </c>
       <c r="AQ24">
+        <v>5840</v>
+      </c>
+      <c r="AR24">
         <v>7190.000001</v>
-      </c>
-      <c r="AR24">
-        <v>7190</v>
       </c>
       <c r="AS24">
         <v>7190</v>
@@ -4658,13 +4784,13 @@
         <v>7190</v>
       </c>
       <c r="AW24">
+        <v>7190</v>
+      </c>
+      <c r="AX24">
         <v>6340</v>
       </c>
-      <c r="AX24">
+      <c r="AY24">
         <v>6340.000000634</v>
-      </c>
-      <c r="AY24">
-        <v>6340</v>
       </c>
       <c r="AZ24">
         <v>6340</v>
@@ -4676,10 +4802,10 @@
         <v>6340</v>
       </c>
       <c r="BC24">
+        <v>6340</v>
+      </c>
+      <c r="BD24">
         <v>8770.000000876998</v>
-      </c>
-      <c r="BD24">
-        <v>8770</v>
       </c>
       <c r="BE24">
         <v>8770</v>
@@ -4691,21 +4817,27 @@
         <v>8770</v>
       </c>
       <c r="BH24">
+        <v>8770</v>
+      </c>
+      <c r="BI24">
         <v>8769.999999123</v>
-      </c>
-      <c r="BI24">
-        <v>7940</v>
       </c>
       <c r="BJ24">
         <v>7940</v>
       </c>
+      <c r="BK24">
+        <v>7940</v>
+      </c>
+      <c r="BL24">
+        <v>7940</v>
+      </c>
     </row>
-    <row r="25" spans="1:62">
+    <row r="25" spans="1:64">
       <c r="A25" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B25" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="Q25">
         <v>144414</v>
@@ -4755,20 +4887,20 @@
       <c r="AF25">
         <v>262068</v>
       </c>
-      <c r="AU25">
-        <v>7400</v>
+      <c r="AG25">
+        <v>368634</v>
       </c>
       <c r="AV25">
         <v>7400</v>
       </c>
       <c r="AW25">
+        <v>7400</v>
+      </c>
+      <c r="AX25">
         <v>1860</v>
       </c>
-      <c r="AX25">
+      <c r="AY25">
         <v>1860.000000186</v>
-      </c>
-      <c r="AY25">
-        <v>1860</v>
       </c>
       <c r="AZ25">
         <v>1860</v>
@@ -4780,10 +4912,10 @@
         <v>1860</v>
       </c>
       <c r="BC25">
+        <v>1860</v>
+      </c>
+      <c r="BD25">
         <v>2100.00000021</v>
-      </c>
-      <c r="BD25">
-        <v>2100</v>
       </c>
       <c r="BE25">
         <v>2100</v>
@@ -4795,21 +4927,27 @@
         <v>2100</v>
       </c>
       <c r="BH25">
+        <v>2100</v>
+      </c>
+      <c r="BI25">
         <v>2099.99999979</v>
-      </c>
-      <c r="BI25">
-        <v>190</v>
       </c>
       <c r="BJ25">
         <v>190</v>
       </c>
+      <c r="BK25">
+        <v>190</v>
+      </c>
+      <c r="BL25">
+        <v>190</v>
+      </c>
     </row>
-    <row r="26" spans="1:62">
+    <row r="26" spans="1:64">
       <c r="A26" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B26" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C26">
         <v>5916034</v>
@@ -4902,7 +5040,7 @@
         <v>14489069</v>
       </c>
       <c r="AG26">
-        <v>6010</v>
+        <v>15335630</v>
       </c>
       <c r="AH26">
         <v>6010</v>
@@ -4914,28 +5052,28 @@
         <v>6010</v>
       </c>
       <c r="AK26">
+        <v>6010</v>
+      </c>
+      <c r="AL26">
         <v>7799.99999922</v>
-      </c>
-      <c r="AL26">
-        <v>7800</v>
       </c>
       <c r="AM26">
         <v>7800</v>
       </c>
       <c r="AN26">
+        <v>7800</v>
+      </c>
+      <c r="AO26">
         <v>7799.99999922</v>
-      </c>
-      <c r="AO26">
-        <v>7800</v>
       </c>
       <c r="AP26">
         <v>7800</v>
       </c>
       <c r="AQ26">
+        <v>7800</v>
+      </c>
+      <c r="AR26">
         <v>8670.000001</v>
-      </c>
-      <c r="AR26">
-        <v>8670</v>
       </c>
       <c r="AS26">
         <v>8670</v>
@@ -4950,13 +5088,13 @@
         <v>8670</v>
       </c>
       <c r="AW26">
+        <v>8670</v>
+      </c>
+      <c r="AX26">
         <v>5820</v>
       </c>
-      <c r="AX26">
+      <c r="AY26">
         <v>5820.000000581999</v>
-      </c>
-      <c r="AY26">
-        <v>5820</v>
       </c>
       <c r="AZ26">
         <v>5820</v>
@@ -4968,10 +5106,10 @@
         <v>5820</v>
       </c>
       <c r="BC26">
+        <v>5820</v>
+      </c>
+      <c r="BD26">
         <v>5910.000000591</v>
-      </c>
-      <c r="BD26">
-        <v>5910</v>
       </c>
       <c r="BE26">
         <v>5910</v>
@@ -4983,21 +5121,27 @@
         <v>5910</v>
       </c>
       <c r="BH26">
+        <v>5910</v>
+      </c>
+      <c r="BI26">
         <v>5909.999999408999</v>
-      </c>
-      <c r="BI26">
-        <v>5380</v>
       </c>
       <c r="BJ26">
         <v>5380</v>
       </c>
+      <c r="BK26">
+        <v>5380</v>
+      </c>
+      <c r="BL26">
+        <v>5380</v>
+      </c>
     </row>
-    <row r="27" spans="1:62">
+    <row r="27" spans="1:64">
       <c r="A27" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B27" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="Y27">
         <v>21100</v>
@@ -5023,11 +5167,11 @@
       <c r="AF27">
         <v>518783</v>
       </c>
-      <c r="BC27">
+      <c r="AG27">
+        <v>607522</v>
+      </c>
+      <c r="BD27">
         <v>41.333333354</v>
-      </c>
-      <c r="BD27">
-        <v>620</v>
       </c>
       <c r="BE27">
         <v>620</v>
@@ -5039,21 +5183,27 @@
         <v>620</v>
       </c>
       <c r="BH27">
+        <v>620</v>
+      </c>
+      <c r="BI27">
         <v>619.999999938</v>
-      </c>
-      <c r="BI27">
-        <v>850</v>
       </c>
       <c r="BJ27">
         <v>850</v>
       </c>
+      <c r="BK27">
+        <v>850</v>
+      </c>
+      <c r="BL27">
+        <v>850</v>
+      </c>
     </row>
-    <row r="28" spans="1:62">
+    <row r="28" spans="1:64">
       <c r="A28" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B28" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C28">
         <v>3524193</v>
@@ -5146,7 +5296,7 @@
         <v>3411815</v>
       </c>
       <c r="AG28">
-        <v>4790</v>
+        <v>3579740</v>
       </c>
       <c r="AH28">
         <v>4790</v>
@@ -5158,19 +5308,19 @@
         <v>4790</v>
       </c>
       <c r="AK28">
+        <v>4790</v>
+      </c>
+      <c r="AL28">
         <v>4789.999999521</v>
-      </c>
-      <c r="AL28">
-        <v>4790</v>
       </c>
       <c r="AM28">
         <v>4790</v>
       </c>
       <c r="AN28">
+        <v>4790</v>
+      </c>
+      <c r="AO28">
         <v>4789.999999521</v>
-      </c>
-      <c r="AO28">
-        <v>4790</v>
       </c>
       <c r="AP28">
         <v>4790</v>
@@ -5194,13 +5344,13 @@
         <v>4790</v>
       </c>
       <c r="AW28">
+        <v>4790</v>
+      </c>
+      <c r="AX28">
         <v>4820</v>
       </c>
-      <c r="AX28">
+      <c r="AY28">
         <v>4820.000000481999</v>
-      </c>
-      <c r="AY28">
-        <v>4820</v>
       </c>
       <c r="AZ28">
         <v>4820</v>
@@ -5209,13 +5359,13 @@
         <v>4820</v>
       </c>
       <c r="BB28">
+        <v>4820</v>
+      </c>
+      <c r="BC28">
         <v>4820.000000000001</v>
       </c>
-      <c r="BC28">
+      <c r="BD28">
         <v>4470.000000446999</v>
-      </c>
-      <c r="BD28">
-        <v>4470</v>
       </c>
       <c r="BE28">
         <v>4470</v>
@@ -5227,21 +5377,27 @@
         <v>4470</v>
       </c>
       <c r="BH28">
+        <v>4470</v>
+      </c>
+      <c r="BI28">
         <v>4469.999999553</v>
-      </c>
-      <c r="BI28">
-        <v>4740</v>
       </c>
       <c r="BJ28">
         <v>4740</v>
       </c>
+      <c r="BK28">
+        <v>4740</v>
+      </c>
+      <c r="BL28">
+        <v>4740</v>
+      </c>
     </row>
-    <row r="29" spans="1:62">
+    <row r="29" spans="1:64">
       <c r="A29" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B29" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C29">
         <v>147532501</v>
@@ -5334,7 +5490,7 @@
         <v>108811841</v>
       </c>
       <c r="AG29">
-        <v>263750</v>
+        <v>126505811</v>
       </c>
       <c r="AH29">
         <v>263750</v>
@@ -5346,28 +5502,28 @@
         <v>263750</v>
       </c>
       <c r="AK29">
+        <v>263750</v>
+      </c>
+      <c r="AL29">
         <v>262049.999973795</v>
-      </c>
-      <c r="AL29">
-        <v>262050</v>
       </c>
       <c r="AM29">
         <v>262050</v>
       </c>
       <c r="AN29">
+        <v>262050</v>
+      </c>
+      <c r="AO29">
         <v>262049.999973795</v>
-      </c>
-      <c r="AO29">
-        <v>262050</v>
       </c>
       <c r="AP29">
         <v>262050</v>
       </c>
       <c r="AQ29">
+        <v>262050</v>
+      </c>
+      <c r="AR29">
         <v>294030.000029</v>
-      </c>
-      <c r="AR29">
-        <v>294030</v>
       </c>
       <c r="AS29">
         <v>294030</v>
@@ -5382,13 +5538,13 @@
         <v>294030</v>
       </c>
       <c r="AW29">
+        <v>294030</v>
+      </c>
+      <c r="AX29">
         <v>282980</v>
       </c>
-      <c r="AX29">
+      <c r="AY29">
         <v>282980.000028298</v>
-      </c>
-      <c r="AY29">
-        <v>282980</v>
       </c>
       <c r="AZ29">
         <v>282980</v>
@@ -5400,10 +5556,10 @@
         <v>282980</v>
       </c>
       <c r="BC29">
+        <v>282980</v>
+      </c>
+      <c r="BD29">
         <v>285780.000028578</v>
-      </c>
-      <c r="BD29">
-        <v>285780</v>
       </c>
       <c r="BE29">
         <v>285780</v>
@@ -5415,21 +5571,27 @@
         <v>285780</v>
       </c>
       <c r="BH29">
+        <v>285780</v>
+      </c>
+      <c r="BI29">
         <v>285779.999971422</v>
-      </c>
-      <c r="BI29">
-        <v>227350</v>
       </c>
       <c r="BJ29">
         <v>227350</v>
       </c>
+      <c r="BK29">
+        <v>227350</v>
+      </c>
+      <c r="BL29">
+        <v>227350</v>
+      </c>
     </row>
-    <row r="30" spans="1:62">
+    <row r="30" spans="1:64">
       <c r="A30" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B30" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C30">
         <v>2336612</v>
@@ -5522,7 +5684,7 @@
         <v>2243941</v>
       </c>
       <c r="AG30">
-        <v>3780</v>
+        <v>2344541</v>
       </c>
       <c r="AH30">
         <v>3780</v>
@@ -5534,25 +5696,25 @@
         <v>3780</v>
       </c>
       <c r="AK30">
+        <v>3780</v>
+      </c>
+      <c r="AL30">
         <v>4029.999999597001</v>
-      </c>
-      <c r="AL30">
-        <v>4030</v>
       </c>
       <c r="AM30">
         <v>4030</v>
       </c>
       <c r="AN30">
+        <v>4030</v>
+      </c>
+      <c r="AO30">
         <v>4029.999999597001</v>
-      </c>
-      <c r="AO30">
-        <v>4030</v>
       </c>
       <c r="AP30">
         <v>4030</v>
       </c>
       <c r="AQ30">
-        <v>4650</v>
+        <v>4030</v>
       </c>
       <c r="AR30">
         <v>4650</v>
@@ -5570,13 +5732,13 @@
         <v>4650</v>
       </c>
       <c r="AW30">
+        <v>4650</v>
+      </c>
+      <c r="AX30">
         <v>5010</v>
       </c>
-      <c r="AX30">
+      <c r="AY30">
         <v>5010.000000501</v>
-      </c>
-      <c r="AY30">
-        <v>5010</v>
       </c>
       <c r="AZ30">
         <v>5010</v>
@@ -5588,10 +5750,10 @@
         <v>5010</v>
       </c>
       <c r="BC30">
+        <v>5010</v>
+      </c>
+      <c r="BD30">
         <v>7170.000000716999</v>
-      </c>
-      <c r="BD30">
-        <v>7170</v>
       </c>
       <c r="BE30">
         <v>7170</v>
@@ -5603,21 +5765,27 @@
         <v>7170</v>
       </c>
       <c r="BH30">
+        <v>7170</v>
+      </c>
+      <c r="BI30">
         <v>7169.999999283</v>
-      </c>
-      <c r="BI30">
-        <v>6010</v>
       </c>
       <c r="BJ30">
         <v>6010</v>
       </c>
+      <c r="BK30">
+        <v>6010</v>
+      </c>
+      <c r="BL30">
+        <v>6010</v>
+      </c>
     </row>
-    <row r="31" spans="1:62">
+    <row r="31" spans="1:64">
       <c r="A31" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B31" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C31">
         <v>1569018</v>
@@ -5710,7 +5878,7 @@
         <v>904863</v>
       </c>
       <c r="AG31">
-        <v>3640</v>
+        <v>944887</v>
       </c>
       <c r="AH31">
         <v>3640</v>
@@ -5722,28 +5890,28 @@
         <v>3640</v>
       </c>
       <c r="AK31">
+        <v>3640</v>
+      </c>
+      <c r="AL31">
         <v>9599.999999039999</v>
-      </c>
-      <c r="AL31">
-        <v>9600</v>
       </c>
       <c r="AM31">
         <v>9600</v>
       </c>
       <c r="AN31">
+        <v>9600</v>
+      </c>
+      <c r="AO31">
         <v>9599.999999039999</v>
-      </c>
-      <c r="AO31">
-        <v>9600</v>
       </c>
       <c r="AP31">
         <v>9600</v>
       </c>
       <c r="AQ31">
+        <v>9600</v>
+      </c>
+      <c r="AR31">
         <v>8950.000001</v>
-      </c>
-      <c r="AR31">
-        <v>8950</v>
       </c>
       <c r="AS31">
         <v>8950</v>
@@ -5758,13 +5926,13 @@
         <v>8950</v>
       </c>
       <c r="AW31">
+        <v>8950</v>
+      </c>
+      <c r="AX31">
         <v>7140</v>
       </c>
-      <c r="AX31">
+      <c r="AY31">
         <v>7140.000000714001</v>
-      </c>
-      <c r="AY31">
-        <v>7140.000000000001</v>
       </c>
       <c r="AZ31">
         <v>7140.000000000001</v>
@@ -5773,13 +5941,13 @@
         <v>7140.000000000001</v>
       </c>
       <c r="BB31">
+        <v>7140.000000000001</v>
+      </c>
+      <c r="BC31">
         <v>7140</v>
       </c>
-      <c r="BC31">
+      <c r="BD31">
         <v>2140.000000214</v>
-      </c>
-      <c r="BD31">
-        <v>2140</v>
       </c>
       <c r="BE31">
         <v>2140</v>
@@ -5791,21 +5959,27 @@
         <v>2140</v>
       </c>
       <c r="BH31">
+        <v>2140</v>
+      </c>
+      <c r="BI31">
         <v>2139.999999786</v>
-      </c>
-      <c r="BI31">
-        <v>1760</v>
       </c>
       <c r="BJ31">
         <v>1760</v>
       </c>
+      <c r="BK31">
+        <v>1760</v>
+      </c>
+      <c r="BL31">
+        <v>1760</v>
+      </c>
     </row>
-    <row r="32" spans="1:62">
+    <row r="32" spans="1:64">
       <c r="A32" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B32" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C32">
         <v>3787618</v>
@@ -5898,7 +6072,7 @@
         <v>5879543</v>
       </c>
       <c r="AG32">
-        <v>6940</v>
+        <v>5216979</v>
       </c>
       <c r="AH32">
         <v>6940</v>
@@ -5910,28 +6084,28 @@
         <v>6940</v>
       </c>
       <c r="AK32">
+        <v>6940</v>
+      </c>
+      <c r="AL32">
         <v>12359.999998764</v>
-      </c>
-      <c r="AL32">
-        <v>12360</v>
       </c>
       <c r="AM32">
         <v>12360</v>
       </c>
       <c r="AN32">
+        <v>12360</v>
+      </c>
+      <c r="AO32">
         <v>12359.999998764</v>
-      </c>
-      <c r="AO32">
-        <v>12360</v>
       </c>
       <c r="AP32">
         <v>12360</v>
       </c>
       <c r="AQ32">
+        <v>12360</v>
+      </c>
+      <c r="AR32">
         <v>13870.000001</v>
-      </c>
-      <c r="AR32">
-        <v>13870</v>
       </c>
       <c r="AS32">
         <v>13870</v>
@@ -5946,13 +6120,13 @@
         <v>13870</v>
       </c>
       <c r="AW32">
+        <v>13870</v>
+      </c>
+      <c r="AX32">
         <v>10560</v>
       </c>
-      <c r="AX32">
+      <c r="AY32">
         <v>10560.000001056</v>
-      </c>
-      <c r="AY32">
-        <v>10560</v>
       </c>
       <c r="AZ32">
         <v>10560</v>
@@ -5964,10 +6138,10 @@
         <v>10560</v>
       </c>
       <c r="BC32">
+        <v>10560</v>
+      </c>
+      <c r="BD32">
         <v>8650.000000864999</v>
-      </c>
-      <c r="BD32">
-        <v>8650</v>
       </c>
       <c r="BE32">
         <v>8650</v>
@@ -5979,21 +6153,27 @@
         <v>8650</v>
       </c>
       <c r="BH32">
+        <v>8650</v>
+      </c>
+      <c r="BI32">
         <v>8649.999999135</v>
-      </c>
-      <c r="BI32">
-        <v>4790</v>
       </c>
       <c r="BJ32">
         <v>4790</v>
       </c>
+      <c r="BK32">
+        <v>4790</v>
+      </c>
+      <c r="BL32">
+        <v>4790</v>
+      </c>
     </row>
-    <row r="33" spans="1:62">
+    <row r="33" spans="1:64">
       <c r="A33" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B33" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C33">
         <v>95164371</v>
@@ -6086,7 +6266,7 @@
         <v>88707970</v>
       </c>
       <c r="AG33">
-        <v>188360</v>
+        <v>92354315</v>
       </c>
       <c r="AH33">
         <v>188360</v>
@@ -6098,28 +6278,28 @@
         <v>188360</v>
       </c>
       <c r="AK33">
+        <v>188360</v>
+      </c>
+      <c r="AL33">
         <v>184899.99998151</v>
-      </c>
-      <c r="AL33">
-        <v>184900</v>
       </c>
       <c r="AM33">
         <v>184900</v>
       </c>
       <c r="AN33">
+        <v>184900</v>
+      </c>
+      <c r="AO33">
         <v>184899.99998151</v>
-      </c>
-      <c r="AO33">
-        <v>184900</v>
       </c>
       <c r="AP33">
         <v>184900</v>
       </c>
       <c r="AQ33">
+        <v>184900</v>
+      </c>
+      <c r="AR33">
         <v>157500.000016</v>
-      </c>
-      <c r="AR33">
-        <v>157500</v>
       </c>
       <c r="AS33">
         <v>157500</v>
@@ -6134,13 +6314,13 @@
         <v>157500</v>
       </c>
       <c r="AW33">
+        <v>157500</v>
+      </c>
+      <c r="AX33">
         <v>154730</v>
       </c>
-      <c r="AX33">
+      <c r="AY33">
         <v>154730.000015473</v>
-      </c>
-      <c r="AY33">
-        <v>154730</v>
       </c>
       <c r="AZ33">
         <v>154730</v>
@@ -6152,10 +6332,10 @@
         <v>154730</v>
       </c>
       <c r="BC33">
+        <v>154730</v>
+      </c>
+      <c r="BD33">
         <v>182478.666684898</v>
-      </c>
-      <c r="BD33">
-        <v>181900</v>
       </c>
       <c r="BE33">
         <v>181900</v>
@@ -6167,21 +6347,27 @@
         <v>181900</v>
       </c>
       <c r="BH33">
+        <v>181900</v>
+      </c>
+      <c r="BI33">
         <v>181899.99998181</v>
-      </c>
-      <c r="BI33">
-        <v>184300</v>
       </c>
       <c r="BJ33">
         <v>184300</v>
       </c>
+      <c r="BK33">
+        <v>184300</v>
+      </c>
+      <c r="BL33">
+        <v>184300</v>
+      </c>
     </row>
-    <row r="34" spans="1:62">
+    <row r="34" spans="1:64">
       <c r="A34" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B34" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C34">
         <v>4954842</v>
@@ -6274,10 +6460,10 @@
         <v>7317076</v>
       </c>
       <c r="AG34">
+        <v>8933482</v>
+      </c>
+      <c r="AH34">
         <v>6000</v>
-      </c>
-      <c r="AH34">
-        <v>5000</v>
       </c>
       <c r="AI34">
         <v>5000</v>
@@ -6286,28 +6472,28 @@
         <v>5000</v>
       </c>
       <c r="AK34">
+        <v>5000</v>
+      </c>
+      <c r="AL34">
         <v>5499.999999449999</v>
-      </c>
-      <c r="AL34">
-        <v>5500</v>
       </c>
       <c r="AM34">
         <v>5500</v>
       </c>
       <c r="AN34">
+        <v>5500</v>
+      </c>
+      <c r="AO34">
         <v>5499.999999449999</v>
-      </c>
-      <c r="AO34">
-        <v>5500</v>
       </c>
       <c r="AP34">
         <v>5500</v>
       </c>
       <c r="AQ34">
+        <v>5500</v>
+      </c>
+      <c r="AR34">
         <v>5500.000001</v>
-      </c>
-      <c r="AR34">
-        <v>5500</v>
       </c>
       <c r="AS34">
         <v>5500</v>
@@ -6322,13 +6508,13 @@
         <v>5500</v>
       </c>
       <c r="AW34">
+        <v>5500</v>
+      </c>
+      <c r="AX34">
         <v>1880</v>
       </c>
-      <c r="AX34">
+      <c r="AY34">
         <v>1880.000000188</v>
-      </c>
-      <c r="AY34">
-        <v>1880</v>
       </c>
       <c r="AZ34">
         <v>1880</v>
@@ -6340,10 +6526,10 @@
         <v>1880</v>
       </c>
       <c r="BC34">
+        <v>1880</v>
+      </c>
+      <c r="BD34">
         <v>3200.00000032</v>
-      </c>
-      <c r="BD34">
-        <v>3200</v>
       </c>
       <c r="BE34">
         <v>3200</v>
@@ -6355,21 +6541,27 @@
         <v>3200</v>
       </c>
       <c r="BH34">
+        <v>3200</v>
+      </c>
+      <c r="BI34">
         <v>3199.99999968</v>
-      </c>
-      <c r="BI34">
-        <v>4800</v>
       </c>
       <c r="BJ34">
         <v>4800</v>
       </c>
+      <c r="BK34">
+        <v>4800</v>
+      </c>
+      <c r="BL34">
+        <v>4800</v>
+      </c>
     </row>
-    <row r="35" spans="1:62">
+    <row r="35" spans="1:64">
       <c r="A35" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B35" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C35">
         <v>3880518</v>
@@ -6462,7 +6654,7 @@
         <v>7137365</v>
       </c>
       <c r="AG35">
-        <v>8270</v>
+        <v>8694950</v>
       </c>
       <c r="AH35">
         <v>8270</v>
@@ -6474,28 +6666,28 @@
         <v>8270</v>
       </c>
       <c r="AK35">
+        <v>8270</v>
+      </c>
+      <c r="AL35">
         <v>8209.999999178999</v>
-      </c>
-      <c r="AL35">
-        <v>8210</v>
       </c>
       <c r="AM35">
         <v>8210</v>
       </c>
       <c r="AN35">
+        <v>8210</v>
+      </c>
+      <c r="AO35">
         <v>8209.999999179001</v>
-      </c>
-      <c r="AO35">
-        <v>8210</v>
       </c>
       <c r="AP35">
         <v>8210</v>
       </c>
       <c r="AQ35">
+        <v>8210</v>
+      </c>
+      <c r="AR35">
         <v>9840.000001</v>
-      </c>
-      <c r="AR35">
-        <v>9840</v>
       </c>
       <c r="AS35">
         <v>9840</v>
@@ -6510,13 +6702,13 @@
         <v>9840</v>
       </c>
       <c r="AW35">
+        <v>9840</v>
+      </c>
+      <c r="AX35">
         <v>9600</v>
       </c>
-      <c r="AX35">
+      <c r="AY35">
         <v>9600.000000960001</v>
-      </c>
-      <c r="AY35">
-        <v>9600</v>
       </c>
       <c r="AZ35">
         <v>9600</v>
@@ -6528,10 +6720,10 @@
         <v>9600</v>
       </c>
       <c r="BC35">
+        <v>9600</v>
+      </c>
+      <c r="BD35">
         <v>12240.000001224</v>
-      </c>
-      <c r="BD35">
-        <v>12240</v>
       </c>
       <c r="BE35">
         <v>12240</v>
@@ -6543,21 +6735,27 @@
         <v>12240</v>
       </c>
       <c r="BH35">
+        <v>12240</v>
+      </c>
+      <c r="BI35">
         <v>12239.999998776</v>
-      </c>
-      <c r="BI35">
-        <v>9380</v>
       </c>
       <c r="BJ35">
         <v>9380</v>
       </c>
+      <c r="BK35">
+        <v>9380</v>
+      </c>
+      <c r="BL35">
+        <v>9380</v>
+      </c>
     </row>
-    <row r="36" spans="1:62">
+    <row r="36" spans="1:64">
       <c r="A36" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B36" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C36">
         <v>2578393</v>
@@ -6650,7 +6848,7 @@
         <v>3588108</v>
       </c>
       <c r="AG36">
-        <v>6530</v>
+        <v>4079713</v>
       </c>
       <c r="AH36">
         <v>6530</v>
@@ -6662,28 +6860,28 @@
         <v>6530</v>
       </c>
       <c r="AK36">
+        <v>6530</v>
+      </c>
+      <c r="AL36">
         <v>6229.999999377001</v>
       </c>
-      <c r="AL36">
+      <c r="AM36">
         <v>6229.999999999999</v>
       </c>
-      <c r="AM36">
+      <c r="AN36">
         <v>6230</v>
       </c>
-      <c r="AN36">
+      <c r="AO36">
         <v>6229.999999377</v>
-      </c>
-      <c r="AO36">
-        <v>6230</v>
       </c>
       <c r="AP36">
         <v>6230</v>
       </c>
       <c r="AQ36">
+        <v>6230</v>
+      </c>
+      <c r="AR36">
         <v>6670.000001</v>
-      </c>
-      <c r="AR36">
-        <v>6670</v>
       </c>
       <c r="AS36">
         <v>6670</v>
@@ -6698,13 +6896,13 @@
         <v>6670</v>
       </c>
       <c r="AW36">
+        <v>6670</v>
+      </c>
+      <c r="AX36">
         <v>6830</v>
       </c>
-      <c r="AX36">
+      <c r="AY36">
         <v>6830.000000683</v>
-      </c>
-      <c r="AY36">
-        <v>6830</v>
       </c>
       <c r="AZ36">
         <v>6830</v>
@@ -6716,10 +6914,10 @@
         <v>6830</v>
       </c>
       <c r="BC36">
+        <v>6830</v>
+      </c>
+      <c r="BD36">
         <v>7110.000000710999</v>
-      </c>
-      <c r="BD36">
-        <v>7110</v>
       </c>
       <c r="BE36">
         <v>7110</v>
@@ -6731,21 +6929,27 @@
         <v>7110</v>
       </c>
       <c r="BH36">
+        <v>7110</v>
+      </c>
+      <c r="BI36">
         <v>7109.999999289</v>
       </c>
-      <c r="BI36">
+      <c r="BJ36">
         <v>7039.999999999999</v>
       </c>
-      <c r="BJ36">
+      <c r="BK36">
         <v>7040</v>
       </c>
+      <c r="BL36">
+        <v>7040</v>
+      </c>
     </row>
-    <row r="37" spans="1:62">
+    <row r="37" spans="1:64">
       <c r="A37" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B37" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C37">
         <v>328284</v>
@@ -6837,9 +7041,6 @@
       <c r="AF37">
         <v>0</v>
       </c>
-      <c r="AG37">
-        <v>690</v>
-      </c>
       <c r="AH37">
         <v>690</v>
       </c>
@@ -6847,22 +7048,22 @@
         <v>690</v>
       </c>
       <c r="AJ37">
+        <v>690</v>
+      </c>
+      <c r="AK37">
         <v>1E-224</v>
       </c>
-      <c r="AK37">
+      <c r="AL37">
         <v>9.999999999000001E-225</v>
       </c>
-      <c r="AL37">
+      <c r="AM37">
         <v>9.999999999999999E-225</v>
       </c>
-      <c r="AM37">
+      <c r="AN37">
         <v>1E-224</v>
       </c>
-      <c r="AN37">
+      <c r="AO37">
         <v>9.999999999E-225</v>
-      </c>
-      <c r="AO37">
-        <v>0</v>
       </c>
       <c r="AP37">
         <v>0</v>
@@ -6880,7 +7081,7 @@
         <v>0</v>
       </c>
       <c r="AU37">
-        <v>1E-224</v>
+        <v>0</v>
       </c>
       <c r="AV37">
         <v>1E-224</v>
@@ -6889,10 +7090,10 @@
         <v>1E-224</v>
       </c>
       <c r="AX37">
+        <v>1E-224</v>
+      </c>
+      <c r="AY37">
         <v>1.0000000001E-224</v>
-      </c>
-      <c r="AY37">
-        <v>1E-224</v>
       </c>
       <c r="AZ37">
         <v>1E-224</v>
@@ -6901,39 +7102,42 @@
         <v>1E-224</v>
       </c>
       <c r="BB37">
+        <v>1E-224</v>
+      </c>
+      <c r="BC37">
         <v>9.999999999999999E-225</v>
       </c>
-      <c r="BC37">
+      <c r="BD37">
         <v>1.0000000001E-224</v>
       </c>
-      <c r="BD37">
+      <c r="BE37">
         <v>9.999999999999999E-225</v>
       </c>
-      <c r="BE37">
+      <c r="BF37">
         <v>9.999999999999998E-225</v>
-      </c>
-      <c r="BF37">
-        <v>9.999999999999999E-225</v>
       </c>
       <c r="BG37">
         <v>9.999999999999999E-225</v>
       </c>
       <c r="BH37">
+        <v>9.999999999999999E-225</v>
+      </c>
+      <c r="BI37">
         <v>9.999999998999999E-225</v>
       </c>
-      <c r="BI37">
+      <c r="BJ37">
         <v>9.999999998999998E-225</v>
       </c>
-      <c r="BJ37">
+      <c r="BK37">
         <v>9.999999998999999E-225</v>
       </c>
     </row>
-    <row r="38" spans="1:62">
+    <row r="38" spans="1:64">
       <c r="A38" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B38" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="K38">
         <v>570554</v>
@@ -6953,14 +7157,11 @@
       <c r="P38">
         <v>472363</v>
       </c>
-      <c r="AO38">
-        <v>870</v>
-      </c>
       <c r="AP38">
         <v>870</v>
       </c>
       <c r="AQ38">
-        <v>930</v>
+        <v>870</v>
       </c>
       <c r="AR38">
         <v>930</v>
@@ -6971,13 +7172,16 @@
       <c r="AT38">
         <v>930</v>
       </c>
+      <c r="AU38">
+        <v>930</v>
+      </c>
     </row>
-    <row r="39" spans="1:62">
+    <row r="39" spans="1:64">
       <c r="A39" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B39" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C39">
         <v>8388</v>
@@ -7052,7 +7256,7 @@
         <v>762456</v>
       </c>
       <c r="AG39">
-        <v>150</v>
+        <v>766101</v>
       </c>
       <c r="AH39">
         <v>150</v>
@@ -7061,34 +7265,34 @@
         <v>150</v>
       </c>
       <c r="AJ39">
+        <v>150</v>
+      </c>
+      <c r="AK39">
         <v>840</v>
       </c>
-      <c r="AK39">
+      <c r="AL39">
         <v>869.9999999130001</v>
-      </c>
-      <c r="AL39">
-        <v>870</v>
       </c>
       <c r="AM39">
         <v>870</v>
       </c>
       <c r="AN39">
+        <v>870</v>
+      </c>
+      <c r="AO39">
         <v>869.999999913</v>
-      </c>
-      <c r="AU39">
-        <v>930</v>
       </c>
       <c r="AV39">
         <v>930</v>
       </c>
       <c r="AW39">
+        <v>930</v>
+      </c>
+      <c r="AX39">
         <v>1290</v>
       </c>
-      <c r="AX39">
+      <c r="AY39">
         <v>1290.000000129</v>
-      </c>
-      <c r="AY39">
-        <v>1290</v>
       </c>
       <c r="AZ39">
         <v>1290</v>
@@ -7100,10 +7304,10 @@
         <v>1290</v>
       </c>
       <c r="BC39">
+        <v>1290</v>
+      </c>
+      <c r="BD39">
         <v>1600.00000016</v>
-      </c>
-      <c r="BD39">
-        <v>1600</v>
       </c>
       <c r="BE39">
         <v>1600</v>
@@ -7115,21 +7319,27 @@
         <v>1600</v>
       </c>
       <c r="BH39">
+        <v>1600</v>
+      </c>
+      <c r="BI39">
         <v>1599.99999984</v>
-      </c>
-      <c r="BI39">
-        <v>1500</v>
       </c>
       <c r="BJ39">
         <v>1500</v>
       </c>
+      <c r="BK39">
+        <v>1500</v>
+      </c>
+      <c r="BL39">
+        <v>1500</v>
+      </c>
     </row>
-    <row r="40" spans="1:62">
+    <row r="40" spans="1:64">
       <c r="A40" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B40" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C40">
         <v>854809</v>
@@ -7222,7 +7432,7 @@
         <v>1885901</v>
       </c>
       <c r="AG40">
-        <v>3480</v>
+        <v>2438980</v>
       </c>
       <c r="AH40">
         <v>3480</v>
@@ -7234,25 +7444,25 @@
         <v>3480</v>
       </c>
       <c r="AK40">
+        <v>3480</v>
+      </c>
+      <c r="AL40">
         <v>3859.999999614</v>
-      </c>
-      <c r="AL40">
-        <v>3860</v>
       </c>
       <c r="AM40">
         <v>3860</v>
       </c>
       <c r="AN40">
+        <v>3860</v>
+      </c>
+      <c r="AO40">
         <v>3859.999999614</v>
-      </c>
-      <c r="AO40">
-        <v>3860</v>
       </c>
       <c r="AP40">
         <v>3860</v>
       </c>
       <c r="AQ40">
-        <v>4200</v>
+        <v>3860</v>
       </c>
       <c r="AR40">
         <v>4200</v>
@@ -7270,13 +7480,13 @@
         <v>4200</v>
       </c>
       <c r="AW40">
+        <v>4200</v>
+      </c>
+      <c r="AX40">
         <v>5520</v>
       </c>
-      <c r="AX40">
+      <c r="AY40">
         <v>5520.000000552</v>
-      </c>
-      <c r="AY40">
-        <v>5520</v>
       </c>
       <c r="AZ40">
         <v>5520</v>
@@ -7288,10 +7498,10 @@
         <v>5520</v>
       </c>
       <c r="BC40">
+        <v>5520</v>
+      </c>
+      <c r="BD40">
         <v>2860.000000286</v>
-      </c>
-      <c r="BD40">
-        <v>2860</v>
       </c>
       <c r="BE40">
         <v>2860</v>
@@ -7303,21 +7513,27 @@
         <v>2860</v>
       </c>
       <c r="BH40">
+        <v>2860</v>
+      </c>
+      <c r="BI40">
         <v>2859.999999713999</v>
-      </c>
-      <c r="BI40">
-        <v>4380</v>
       </c>
       <c r="BJ40">
         <v>4380</v>
       </c>
+      <c r="BK40">
+        <v>4380</v>
+      </c>
+      <c r="BL40">
+        <v>4380</v>
+      </c>
     </row>
-    <row r="41" spans="1:62">
+    <row r="41" spans="1:64">
       <c r="A41" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B41" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C41">
         <v>33338886</v>
@@ -7410,7 +7626,7 @@
         <v>34332985</v>
       </c>
       <c r="AG41">
-        <v>42110</v>
+        <v>36441963</v>
       </c>
       <c r="AH41">
         <v>42110</v>
@@ -7422,28 +7638,28 @@
         <v>42110</v>
       </c>
       <c r="AK41">
+        <v>42110</v>
+      </c>
+      <c r="AL41">
         <v>42109.999995789</v>
-      </c>
-      <c r="AL41">
-        <v>42110</v>
       </c>
       <c r="AM41">
         <v>42110</v>
       </c>
       <c r="AN41">
+        <v>42110</v>
+      </c>
+      <c r="AO41">
         <v>42109.999995789</v>
-      </c>
-      <c r="AO41">
-        <v>42110</v>
       </c>
       <c r="AP41">
         <v>42110</v>
       </c>
       <c r="AQ41">
+        <v>42110</v>
+      </c>
+      <c r="AR41">
         <v>44790.000004</v>
-      </c>
-      <c r="AR41">
-        <v>44790</v>
       </c>
       <c r="AS41">
         <v>44790</v>
@@ -7458,13 +7674,13 @@
         <v>44790</v>
       </c>
       <c r="AW41">
+        <v>44790</v>
+      </c>
+      <c r="AX41">
         <v>46820</v>
       </c>
-      <c r="AX41">
+      <c r="AY41">
         <v>46820.000004682</v>
-      </c>
-      <c r="AY41">
-        <v>46820</v>
       </c>
       <c r="AZ41">
         <v>46820</v>
@@ -7473,13 +7689,13 @@
         <v>46820</v>
       </c>
       <c r="BB41">
+        <v>46820</v>
+      </c>
+      <c r="BC41">
         <v>46819.99999999999</v>
       </c>
-      <c r="BC41">
+      <c r="BD41">
         <v>41610.000004161</v>
-      </c>
-      <c r="BD41">
-        <v>41610</v>
       </c>
       <c r="BE41">
         <v>41610</v>
@@ -7491,21 +7707,27 @@
         <v>41610</v>
       </c>
       <c r="BH41">
+        <v>41610</v>
+      </c>
+      <c r="BI41">
         <v>41609.999995839</v>
-      </c>
-      <c r="BI41">
-        <v>43410</v>
       </c>
       <c r="BJ41">
         <v>43410</v>
       </c>
+      <c r="BK41">
+        <v>43410</v>
+      </c>
+      <c r="BL41">
+        <v>43410</v>
+      </c>
     </row>
-    <row r="42" spans="1:62">
+    <row r="42" spans="1:64">
       <c r="A42" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B42" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C42">
         <v>0</v>
@@ -7585,9 +7807,6 @@
       <c r="AB42">
         <v>0</v>
       </c>
-      <c r="AG42">
-        <v>1E-224</v>
-      </c>
       <c r="AH42">
         <v>1E-224</v>
       </c>
@@ -7598,19 +7817,19 @@
         <v>1E-224</v>
       </c>
       <c r="AK42">
+        <v>1E-224</v>
+      </c>
+      <c r="AL42">
         <v>9.999999999000001E-225</v>
       </c>
-      <c r="AL42">
+      <c r="AM42">
         <v>9.999999999999999E-225</v>
       </c>
-      <c r="AM42">
+      <c r="AN42">
         <v>1E-224</v>
       </c>
-      <c r="AN42">
+      <c r="AO42">
         <v>9.999999999E-225</v>
-      </c>
-      <c r="AO42">
-        <v>0</v>
       </c>
       <c r="AP42">
         <v>0</v>
@@ -7628,7 +7847,7 @@
         <v>0</v>
       </c>
       <c r="AU42">
-        <v>1E-224</v>
+        <v>0</v>
       </c>
       <c r="AV42">
         <v>1E-224</v>
@@ -7637,10 +7856,10 @@
         <v>1E-224</v>
       </c>
       <c r="AX42">
+        <v>1E-224</v>
+      </c>
+      <c r="AY42">
         <v>1.0000000001E-224</v>
-      </c>
-      <c r="AY42">
-        <v>1E-224</v>
       </c>
       <c r="AZ42">
         <v>1E-224</v>
@@ -7649,13 +7868,13 @@
         <v>1E-224</v>
       </c>
       <c r="BB42">
+        <v>1E-224</v>
+      </c>
+      <c r="BC42">
         <v>9.999999999999999E-225</v>
       </c>
-      <c r="BC42">
+      <c r="BD42">
         <v>1.0000000001E-224</v>
-      </c>
-      <c r="BD42">
-        <v>1E-224</v>
       </c>
       <c r="BE42">
         <v>1E-224</v>
@@ -7663,13 +7882,16 @@
       <c r="BF42">
         <v>1E-224</v>
       </c>
+      <c r="BG42">
+        <v>1E-224</v>
+      </c>
     </row>
-    <row r="43" spans="1:62">
+    <row r="43" spans="1:64">
       <c r="A43" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B43" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C43">
         <v>824913</v>
@@ -7762,7 +7984,7 @@
         <v>993864</v>
       </c>
       <c r="AG43">
-        <v>2450</v>
+        <v>1041050</v>
       </c>
       <c r="AH43">
         <v>2450</v>
@@ -7774,25 +7996,25 @@
         <v>2450</v>
       </c>
       <c r="AK43">
+        <v>2450</v>
+      </c>
+      <c r="AL43">
         <v>2189.999999781</v>
-      </c>
-      <c r="AL43">
-        <v>2190</v>
       </c>
       <c r="AM43">
         <v>2190</v>
       </c>
       <c r="AN43">
+        <v>2190</v>
+      </c>
+      <c r="AO43">
         <v>2189.999999781</v>
-      </c>
-      <c r="AO43">
-        <v>2190</v>
       </c>
       <c r="AP43">
         <v>2190</v>
       </c>
       <c r="AQ43">
-        <v>2510</v>
+        <v>2190</v>
       </c>
       <c r="AR43">
         <v>2510</v>
@@ -7810,13 +8032,13 @@
         <v>2510</v>
       </c>
       <c r="AW43">
+        <v>2510</v>
+      </c>
+      <c r="AX43">
         <v>2330</v>
       </c>
-      <c r="AX43">
+      <c r="AY43">
         <v>2330.000000233</v>
-      </c>
-      <c r="AY43">
-        <v>2330</v>
       </c>
       <c r="AZ43">
         <v>2330</v>
@@ -7828,10 +8050,10 @@
         <v>2330</v>
       </c>
       <c r="BC43">
+        <v>2330</v>
+      </c>
+      <c r="BD43">
         <v>2620.000000262</v>
-      </c>
-      <c r="BD43">
-        <v>2620</v>
       </c>
       <c r="BE43">
         <v>2620</v>
@@ -7843,21 +8065,27 @@
         <v>2620</v>
       </c>
       <c r="BH43">
+        <v>2620</v>
+      </c>
+      <c r="BI43">
         <v>2619.999999738</v>
-      </c>
-      <c r="BI43">
-        <v>2320</v>
       </c>
       <c r="BJ43">
         <v>2320</v>
       </c>
+      <c r="BK43">
+        <v>2320</v>
+      </c>
+      <c r="BL43">
+        <v>2320</v>
+      </c>
     </row>
-    <row r="44" spans="1:62">
+    <row r="44" spans="1:64">
       <c r="A44" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B44" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="Q44">
         <v>1785</v>
@@ -7907,20 +8135,20 @@
       <c r="AF44">
         <v>27056</v>
       </c>
-      <c r="AU44">
+      <c r="AG44">
+        <v>157727</v>
+      </c>
+      <c r="AV44">
         <v>1916.12903218</v>
       </c>
-      <c r="AV44">
+      <c r="AW44">
         <v>2200</v>
       </c>
-      <c r="AW44">
+      <c r="AX44">
         <v>150</v>
       </c>
-      <c r="AX44">
+      <c r="AY44">
         <v>150.000000015</v>
-      </c>
-      <c r="AY44">
-        <v>150</v>
       </c>
       <c r="AZ44">
         <v>150</v>
@@ -7932,10 +8160,10 @@
         <v>150</v>
       </c>
       <c r="BC44">
+        <v>150</v>
+      </c>
+      <c r="BD44">
         <v>40.00000000399999</v>
-      </c>
-      <c r="BD44">
-        <v>40</v>
       </c>
       <c r="BE44">
         <v>40</v>
@@ -7947,21 +8175,27 @@
         <v>40</v>
       </c>
       <c r="BH44">
+        <v>40</v>
+      </c>
+      <c r="BI44">
         <v>39.999999996</v>
-      </c>
-      <c r="BI44">
-        <v>2360</v>
       </c>
       <c r="BJ44">
         <v>2360</v>
       </c>
+      <c r="BK44">
+        <v>2360</v>
+      </c>
+      <c r="BL44">
+        <v>2360</v>
+      </c>
     </row>
-    <row r="45" spans="1:62">
+    <row r="45" spans="1:64">
       <c r="A45" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B45" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C45">
         <v>488483</v>
@@ -8054,7 +8288,7 @@
         <v>946949</v>
       </c>
       <c r="AG45">
-        <v>1140</v>
+        <v>917454</v>
       </c>
       <c r="AH45">
         <v>1140</v>
@@ -8066,25 +8300,25 @@
         <v>1140</v>
       </c>
       <c r="AK45">
+        <v>1140</v>
+      </c>
+      <c r="AL45">
         <v>729.9999999270002</v>
-      </c>
-      <c r="AL45">
-        <v>730</v>
       </c>
       <c r="AM45">
         <v>730</v>
       </c>
       <c r="AN45">
+        <v>730</v>
+      </c>
+      <c r="AO45">
         <v>729.9999999270001</v>
-      </c>
-      <c r="AO45">
-        <v>730</v>
       </c>
       <c r="AP45">
         <v>730</v>
       </c>
       <c r="AQ45">
-        <v>1570</v>
+        <v>730</v>
       </c>
       <c r="AR45">
         <v>1570</v>
@@ -8102,13 +8336,13 @@
         <v>1570</v>
       </c>
       <c r="AW45">
+        <v>1570</v>
+      </c>
+      <c r="AX45">
         <v>1040</v>
       </c>
-      <c r="AX45">
+      <c r="AY45">
         <v>1040.000000104</v>
-      </c>
-      <c r="AY45">
-        <v>1040</v>
       </c>
       <c r="AZ45">
         <v>1040</v>
@@ -8120,10 +8354,10 @@
         <v>1040</v>
       </c>
       <c r="BC45">
+        <v>1040</v>
+      </c>
+      <c r="BD45">
         <v>1070.000000107</v>
-      </c>
-      <c r="BD45">
-        <v>1070</v>
       </c>
       <c r="BE45">
         <v>1070</v>
@@ -8135,21 +8369,27 @@
         <v>1070</v>
       </c>
       <c r="BH45">
+        <v>1070</v>
+      </c>
+      <c r="BI45">
         <v>1069.999999893</v>
-      </c>
-      <c r="BI45">
-        <v>1230</v>
       </c>
       <c r="BJ45">
         <v>1230</v>
       </c>
+      <c r="BK45">
+        <v>1230</v>
+      </c>
+      <c r="BL45">
+        <v>1230</v>
+      </c>
     </row>
-    <row r="46" spans="1:62">
+    <row r="46" spans="1:64">
       <c r="A46" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B46" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C46">
         <v>7621372</v>
@@ -8242,7 +8482,7 @@
         <v>6124514</v>
       </c>
       <c r="AG46">
-        <v>14260</v>
+        <v>7160941</v>
       </c>
       <c r="AH46">
         <v>14260</v>
@@ -8254,28 +8494,28 @@
         <v>14260</v>
       </c>
       <c r="AK46">
+        <v>14260</v>
+      </c>
+      <c r="AL46">
         <v>12459.999998754</v>
-      </c>
-      <c r="AL46">
-        <v>12460</v>
       </c>
       <c r="AM46">
         <v>12460</v>
       </c>
       <c r="AN46">
+        <v>12460</v>
+      </c>
+      <c r="AO46">
         <v>12459.999998754</v>
-      </c>
-      <c r="AO46">
-        <v>12460</v>
       </c>
       <c r="AP46">
         <v>12460</v>
       </c>
       <c r="AQ46">
+        <v>12460</v>
+      </c>
+      <c r="AR46">
         <v>14000.000001</v>
-      </c>
-      <c r="AR46">
-        <v>14000</v>
       </c>
       <c r="AS46">
         <v>14000</v>
@@ -8290,13 +8530,13 @@
         <v>14000</v>
       </c>
       <c r="AW46">
+        <v>14000</v>
+      </c>
+      <c r="AX46">
         <v>11070</v>
       </c>
-      <c r="AX46">
+      <c r="AY46">
         <v>11070.000001107</v>
-      </c>
-      <c r="AY46">
-        <v>11070</v>
       </c>
       <c r="AZ46">
         <v>11070</v>
@@ -8308,10 +8548,10 @@
         <v>11070</v>
       </c>
       <c r="BC46">
+        <v>11070</v>
+      </c>
+      <c r="BD46">
         <v>14150.000001415</v>
-      </c>
-      <c r="BD46">
-        <v>14150</v>
       </c>
       <c r="BE46">
         <v>14150</v>
@@ -8323,21 +8563,27 @@
         <v>14150</v>
       </c>
       <c r="BH46">
+        <v>14150</v>
+      </c>
+      <c r="BI46">
         <v>14149.999998585</v>
-      </c>
-      <c r="BI46">
-        <v>14390</v>
       </c>
       <c r="BJ46">
         <v>14390</v>
       </c>
+      <c r="BK46">
+        <v>14390</v>
+      </c>
+      <c r="BL46">
+        <v>14390</v>
+      </c>
     </row>
-    <row r="47" spans="1:62">
+    <row r="47" spans="1:64">
       <c r="A47" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B47" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="N47">
         <v>1300004</v>
@@ -8396,8 +8642,8 @@
       <c r="AF47">
         <v>3691019</v>
       </c>
-      <c r="AR47">
-        <v>3630</v>
+      <c r="AG47">
+        <v>3952727</v>
       </c>
       <c r="AS47">
         <v>3630</v>
@@ -8412,13 +8658,13 @@
         <v>3630</v>
       </c>
       <c r="AW47">
+        <v>3630</v>
+      </c>
+      <c r="AX47">
         <v>5910</v>
       </c>
-      <c r="AX47">
+      <c r="AY47">
         <v>5910.000000591001</v>
-      </c>
-      <c r="AY47">
-        <v>5910</v>
       </c>
       <c r="AZ47">
         <v>5910</v>
@@ -8430,10 +8676,10 @@
         <v>5910</v>
       </c>
       <c r="BC47">
+        <v>5910</v>
+      </c>
+      <c r="BD47">
         <v>16190.000001619</v>
-      </c>
-      <c r="BD47">
-        <v>16190</v>
       </c>
       <c r="BE47">
         <v>16190</v>
@@ -8445,21 +8691,27 @@
         <v>16190</v>
       </c>
       <c r="BH47">
+        <v>16190</v>
+      </c>
+      <c r="BI47">
         <v>16189.999998381</v>
-      </c>
-      <c r="BI47">
-        <v>17320</v>
       </c>
       <c r="BJ47">
         <v>17320</v>
       </c>
+      <c r="BK47">
+        <v>17320</v>
+      </c>
+      <c r="BL47">
+        <v>17320</v>
+      </c>
     </row>
-    <row r="48" spans="1:62">
+    <row r="48" spans="1:64">
       <c r="A48" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B48" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C48">
         <v>2043770</v>
@@ -8552,7 +8804,7 @@
         <v>2617293</v>
       </c>
       <c r="AG48">
-        <v>3260</v>
+        <v>2701925</v>
       </c>
       <c r="AH48">
         <v>3260</v>
@@ -8564,25 +8816,25 @@
         <v>3260</v>
       </c>
       <c r="AK48">
+        <v>3260</v>
+      </c>
+      <c r="AL48">
         <v>2979.999999702</v>
-      </c>
-      <c r="AL48">
-        <v>2980</v>
       </c>
       <c r="AM48">
         <v>2980</v>
       </c>
       <c r="AN48">
+        <v>2980</v>
+      </c>
+      <c r="AO48">
         <v>2979.999999702</v>
-      </c>
-      <c r="AO48">
-        <v>2980</v>
       </c>
       <c r="AP48">
         <v>2980</v>
       </c>
       <c r="AQ48">
-        <v>3410</v>
+        <v>2980</v>
       </c>
       <c r="AR48">
         <v>3410</v>
@@ -8600,13 +8852,13 @@
         <v>3410</v>
       </c>
       <c r="AW48">
+        <v>3410</v>
+      </c>
+      <c r="AX48">
         <v>3180</v>
       </c>
-      <c r="AX48">
+      <c r="AY48">
         <v>3180.000000318</v>
-      </c>
-      <c r="AY48">
-        <v>3180</v>
       </c>
       <c r="AZ48">
         <v>3180</v>
@@ -8618,10 +8870,10 @@
         <v>3180</v>
       </c>
       <c r="BC48">
+        <v>3180</v>
+      </c>
+      <c r="BD48">
         <v>3770.000000377</v>
-      </c>
-      <c r="BD48">
-        <v>3770</v>
       </c>
       <c r="BE48">
         <v>3770</v>
@@ -8633,21 +8885,27 @@
         <v>3770</v>
       </c>
       <c r="BH48">
+        <v>3770</v>
+      </c>
+      <c r="BI48">
         <v>3769.999999623</v>
-      </c>
-      <c r="BI48">
-        <v>3520</v>
       </c>
       <c r="BJ48">
         <v>3520</v>
       </c>
+      <c r="BK48">
+        <v>3520</v>
+      </c>
+      <c r="BL48">
+        <v>3520</v>
+      </c>
     </row>
-    <row r="49" spans="1:62">
+    <row r="49" spans="1:64">
       <c r="A49" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B49" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C49">
         <v>25230667</v>
@@ -8673,9 +8931,6 @@
       <c r="J49">
         <v>29119996</v>
       </c>
-      <c r="AG49">
-        <v>44980</v>
-      </c>
       <c r="AH49">
         <v>44980</v>
       </c>
@@ -8686,24 +8941,27 @@
         <v>44980</v>
       </c>
       <c r="AK49">
+        <v>44980</v>
+      </c>
+      <c r="AL49">
         <v>41159.99999588401</v>
-      </c>
-      <c r="AL49">
-        <v>41160</v>
       </c>
       <c r="AM49">
         <v>41160</v>
       </c>
       <c r="AN49">
+        <v>41160</v>
+      </c>
+      <c r="AO49">
         <v>41159.99999588401</v>
       </c>
     </row>
-    <row r="50" spans="1:62">
+    <row r="50" spans="1:64">
       <c r="A50" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B50" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C50">
         <v>9282498</v>
@@ -8729,9 +8987,6 @@
       <c r="J50">
         <v>7989532</v>
       </c>
-      <c r="AG50">
-        <v>15200</v>
-      </c>
       <c r="AH50">
         <v>15200</v>
       </c>
@@ -8742,24 +8997,27 @@
         <v>15200</v>
       </c>
       <c r="AK50">
+        <v>15200</v>
+      </c>
+      <c r="AL50">
         <v>13579.999998642</v>
-      </c>
-      <c r="AL50">
-        <v>13580</v>
       </c>
       <c r="AM50">
         <v>13580</v>
       </c>
       <c r="AN50">
+        <v>13580</v>
+      </c>
+      <c r="AO50">
         <v>13579.999998642</v>
       </c>
     </row>
-    <row r="51" spans="1:62">
+    <row r="51" spans="1:64">
       <c r="A51" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B51" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="K51">
         <v>7655068</v>
@@ -8827,17 +9085,17 @@
       <c r="AF51">
         <v>7405294</v>
       </c>
-      <c r="AO51">
-        <v>13580</v>
+      <c r="AG51">
+        <v>7742146</v>
       </c>
       <c r="AP51">
         <v>13580</v>
       </c>
       <c r="AQ51">
+        <v>13580</v>
+      </c>
+      <c r="AR51">
         <v>11660.000001</v>
-      </c>
-      <c r="AR51">
-        <v>11660</v>
       </c>
       <c r="AS51">
         <v>11660</v>
@@ -8852,13 +9110,13 @@
         <v>11660</v>
       </c>
       <c r="AW51">
+        <v>11660</v>
+      </c>
+      <c r="AX51">
         <v>10420</v>
       </c>
-      <c r="AX51">
+      <c r="AY51">
         <v>10420.000001042</v>
-      </c>
-      <c r="AY51">
-        <v>10420</v>
       </c>
       <c r="AZ51">
         <v>10420</v>
@@ -8870,10 +9128,10 @@
         <v>10420</v>
       </c>
       <c r="BC51">
+        <v>10420</v>
+      </c>
+      <c r="BD51">
         <v>15070.000001507</v>
-      </c>
-      <c r="BD51">
-        <v>15070</v>
       </c>
       <c r="BE51">
         <v>15070</v>
@@ -8885,21 +9143,27 @@
         <v>15070</v>
       </c>
       <c r="BH51">
+        <v>15070</v>
+      </c>
+      <c r="BI51">
         <v>15069.999998493</v>
-      </c>
-      <c r="BI51">
-        <v>12920</v>
       </c>
       <c r="BJ51">
         <v>12920</v>
       </c>
+      <c r="BK51">
+        <v>12920</v>
+      </c>
+      <c r="BL51">
+        <v>12920</v>
+      </c>
     </row>
-    <row r="52" spans="1:62">
+    <row r="52" spans="1:64">
       <c r="A52" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B52" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="K52">
         <v>27995301</v>
@@ -8967,17 +9231,17 @@
       <c r="AF52">
         <v>31516499</v>
       </c>
-      <c r="AO52">
-        <v>41160</v>
+      <c r="AG52">
+        <v>31063436</v>
       </c>
       <c r="AP52">
         <v>41160</v>
       </c>
       <c r="AQ52">
+        <v>41160</v>
+      </c>
+      <c r="AR52">
         <v>45250.000005</v>
-      </c>
-      <c r="AR52">
-        <v>45250</v>
       </c>
       <c r="AS52">
         <v>45250</v>
@@ -8992,13 +9256,13 @@
         <v>45250</v>
       </c>
       <c r="AW52">
+        <v>45250</v>
+      </c>
+      <c r="AX52">
         <v>49840</v>
       </c>
-      <c r="AX52">
+      <c r="AY52">
         <v>49840.00000498399</v>
-      </c>
-      <c r="AY52">
-        <v>49840</v>
       </c>
       <c r="AZ52">
         <v>49840</v>
@@ -9010,10 +9274,10 @@
         <v>49840</v>
       </c>
       <c r="BC52">
+        <v>49840</v>
+      </c>
+      <c r="BD52">
         <v>57320.000005732</v>
-      </c>
-      <c r="BD52">
-        <v>57320</v>
       </c>
       <c r="BE52">
         <v>57320</v>
@@ -9025,21 +9289,27 @@
         <v>57320</v>
       </c>
       <c r="BH52">
+        <v>57320</v>
+      </c>
+      <c r="BI52">
         <v>57319.99999426799</v>
-      </c>
-      <c r="BI52">
-        <v>55740</v>
       </c>
       <c r="BJ52">
         <v>55740</v>
       </c>
+      <c r="BK52">
+        <v>55740</v>
+      </c>
+      <c r="BL52">
+        <v>55740</v>
+      </c>
     </row>
-    <row r="53" spans="1:62">
+    <row r="53" spans="1:64">
       <c r="A53" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B53" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C53">
         <v>2618079</v>
@@ -9132,7 +9402,7 @@
         <v>3072523</v>
       </c>
       <c r="AG53">
-        <v>4940</v>
+        <v>3259428</v>
       </c>
       <c r="AH53">
         <v>4940</v>
@@ -9144,25 +9414,25 @@
         <v>4940</v>
       </c>
       <c r="AK53">
+        <v>4940</v>
+      </c>
+      <c r="AL53">
         <v>3739.999999626</v>
-      </c>
-      <c r="AL53">
-        <v>3740</v>
       </c>
       <c r="AM53">
         <v>3740</v>
       </c>
       <c r="AN53">
+        <v>3740</v>
+      </c>
+      <c r="AO53">
         <v>3739.999999626</v>
-      </c>
-      <c r="AO53">
-        <v>3740</v>
       </c>
       <c r="AP53">
         <v>3740</v>
       </c>
       <c r="AQ53">
-        <v>4400</v>
+        <v>3740</v>
       </c>
       <c r="AR53">
         <v>4400</v>
@@ -9180,13 +9450,13 @@
         <v>4400</v>
       </c>
       <c r="AW53">
+        <v>4400</v>
+      </c>
+      <c r="AX53">
         <v>3980</v>
       </c>
-      <c r="AX53">
+      <c r="AY53">
         <v>3980.000000398</v>
-      </c>
-      <c r="AY53">
-        <v>3980</v>
       </c>
       <c r="AZ53">
         <v>3980</v>
@@ -9198,10 +9468,10 @@
         <v>3980</v>
       </c>
       <c r="BC53">
+        <v>3980</v>
+      </c>
+      <c r="BD53">
         <v>6190.000000619</v>
-      </c>
-      <c r="BD53">
-        <v>6190</v>
       </c>
       <c r="BE53">
         <v>6190</v>
@@ -9213,21 +9483,27 @@
         <v>6190</v>
       </c>
       <c r="BH53">
+        <v>6190</v>
+      </c>
+      <c r="BI53">
         <v>6189.999999381</v>
-      </c>
-      <c r="BI53">
-        <v>5470</v>
       </c>
       <c r="BJ53">
         <v>5470</v>
       </c>
+      <c r="BK53">
+        <v>5470</v>
+      </c>
+      <c r="BL53">
+        <v>5470</v>
+      </c>
     </row>
-    <row r="54" spans="1:62">
+    <row r="54" spans="1:64">
       <c r="A54" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B54" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C54">
         <v>2604816</v>
@@ -9320,7 +9596,7 @@
         <v>2276837</v>
       </c>
       <c r="AG54">
-        <v>4180</v>
+        <v>2529718</v>
       </c>
       <c r="AH54">
         <v>4180</v>
@@ -9332,28 +9608,28 @@
         <v>4180</v>
       </c>
       <c r="AK54">
+        <v>4180</v>
+      </c>
+      <c r="AL54">
         <v>5079.999999492001</v>
-      </c>
-      <c r="AL54">
-        <v>5080</v>
       </c>
       <c r="AM54">
         <v>5080</v>
       </c>
       <c r="AN54">
+        <v>5080</v>
+      </c>
+      <c r="AO54">
         <v>5079.999999492</v>
-      </c>
-      <c r="AO54">
-        <v>5080</v>
       </c>
       <c r="AP54">
         <v>5080</v>
       </c>
       <c r="AQ54">
+        <v>5080</v>
+      </c>
+      <c r="AR54">
         <v>6090.000001</v>
-      </c>
-      <c r="AR54">
-        <v>6090</v>
       </c>
       <c r="AS54">
         <v>6090</v>
@@ -9362,19 +9638,19 @@
         <v>6090</v>
       </c>
       <c r="AU54">
+        <v>6090</v>
+      </c>
+      <c r="AV54">
         <v>6090.000000000001</v>
       </c>
-      <c r="AV54">
+      <c r="AW54">
         <v>6090</v>
       </c>
-      <c r="AW54">
+      <c r="AX54">
         <v>5380</v>
       </c>
-      <c r="AX54">
+      <c r="AY54">
         <v>5380.000000538001</v>
-      </c>
-      <c r="AY54">
-        <v>5380</v>
       </c>
       <c r="AZ54">
         <v>5380</v>
@@ -9386,10 +9662,10 @@
         <v>5380</v>
       </c>
       <c r="BC54">
+        <v>5380</v>
+      </c>
+      <c r="BD54">
         <v>7330.000000733</v>
-      </c>
-      <c r="BD54">
-        <v>7330</v>
       </c>
       <c r="BE54">
         <v>7330</v>
@@ -9401,21 +9677,27 @@
         <v>7330</v>
       </c>
       <c r="BH54">
+        <v>7330</v>
+      </c>
+      <c r="BI54">
         <v>7329.999999267</v>
-      </c>
-      <c r="BI54">
-        <v>5220</v>
       </c>
       <c r="BJ54">
         <v>5220</v>
       </c>
+      <c r="BK54">
+        <v>5220</v>
+      </c>
+      <c r="BL54">
+        <v>5220</v>
+      </c>
     </row>
-    <row r="55" spans="1:62">
+    <row r="55" spans="1:64">
       <c r="A55" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B55" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C55">
         <v>376176</v>
@@ -9508,7 +9790,7 @@
         <v>477607</v>
       </c>
       <c r="AG55">
-        <v>2430</v>
+        <v>478796</v>
       </c>
       <c r="AH55">
         <v>2430</v>
@@ -9520,25 +9802,25 @@
         <v>2430</v>
       </c>
       <c r="AK55">
+        <v>2430</v>
+      </c>
+      <c r="AL55">
         <v>1239.999999876</v>
-      </c>
-      <c r="AL55">
-        <v>1240</v>
       </c>
       <c r="AM55">
         <v>1240</v>
       </c>
       <c r="AN55">
+        <v>1240</v>
+      </c>
+      <c r="AO55">
         <v>1239.999999876</v>
-      </c>
-      <c r="AO55">
-        <v>1240</v>
       </c>
       <c r="AP55">
         <v>1240</v>
       </c>
       <c r="AQ55">
-        <v>1350</v>
+        <v>1240</v>
       </c>
       <c r="AR55">
         <v>1350</v>
@@ -9556,13 +9838,13 @@
         <v>1350</v>
       </c>
       <c r="AW55">
+        <v>1350</v>
+      </c>
+      <c r="AX55">
         <v>1290</v>
       </c>
-      <c r="AX55">
+      <c r="AY55">
         <v>1290.000000129</v>
-      </c>
-      <c r="AY55">
-        <v>1290</v>
       </c>
       <c r="AZ55">
         <v>1290</v>
@@ -9574,10 +9856,10 @@
         <v>1290</v>
       </c>
       <c r="BC55">
+        <v>1290</v>
+      </c>
+      <c r="BD55">
         <v>1470.000000147</v>
-      </c>
-      <c r="BD55">
-        <v>1470</v>
       </c>
       <c r="BE55">
         <v>1470</v>
@@ -9589,21 +9871,27 @@
         <v>1470</v>
       </c>
       <c r="BH55">
+        <v>1470</v>
+      </c>
+      <c r="BI55">
         <v>1469.999999853</v>
-      </c>
-      <c r="BI55">
-        <v>1410</v>
       </c>
       <c r="BJ55">
         <v>1410</v>
       </c>
+      <c r="BK55">
+        <v>1410</v>
+      </c>
+      <c r="BL55">
+        <v>1410</v>
+      </c>
     </row>
-    <row r="56" spans="1:62">
+    <row r="56" spans="1:64">
       <c r="A56" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B56" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C56">
         <v>1219655</v>
@@ -9696,7 +9984,7 @@
         <v>995543</v>
       </c>
       <c r="AG56">
-        <v>2400</v>
+        <v>1064223</v>
       </c>
       <c r="AH56">
         <v>2400</v>
@@ -9708,25 +9996,25 @@
         <v>2400</v>
       </c>
       <c r="AK56">
+        <v>2400</v>
+      </c>
+      <c r="AL56">
         <v>2459.999999754</v>
-      </c>
-      <c r="AL56">
-        <v>2460</v>
       </c>
       <c r="AM56">
         <v>2460</v>
       </c>
       <c r="AN56">
+        <v>2460</v>
+      </c>
+      <c r="AO56">
         <v>2459.999999754</v>
-      </c>
-      <c r="AO56">
-        <v>2460</v>
       </c>
       <c r="AP56">
         <v>2460</v>
       </c>
       <c r="AQ56">
-        <v>2480</v>
+        <v>2460</v>
       </c>
       <c r="AR56">
         <v>2480</v>
@@ -9744,13 +10032,13 @@
         <v>2480</v>
       </c>
       <c r="AW56">
+        <v>2480</v>
+      </c>
+      <c r="AX56">
         <v>2600</v>
       </c>
-      <c r="AX56">
+      <c r="AY56">
         <v>2600.00000026</v>
-      </c>
-      <c r="AY56">
-        <v>2600</v>
       </c>
       <c r="AZ56">
         <v>2600</v>
@@ -9762,10 +10050,10 @@
         <v>2600</v>
       </c>
       <c r="BC56">
+        <v>2600</v>
+      </c>
+      <c r="BD56">
         <v>3130.000000313</v>
-      </c>
-      <c r="BD56">
-        <v>3130</v>
       </c>
       <c r="BE56">
         <v>3130</v>
@@ -9777,21 +10065,27 @@
         <v>3130</v>
       </c>
       <c r="BH56">
+        <v>3130</v>
+      </c>
+      <c r="BI56">
         <v>3129.999999687</v>
-      </c>
-      <c r="BI56">
-        <v>2970</v>
       </c>
       <c r="BJ56">
         <v>2970</v>
       </c>
+      <c r="BK56">
+        <v>2970</v>
+      </c>
+      <c r="BL56">
+        <v>2970</v>
+      </c>
     </row>
-    <row r="57" spans="1:62">
+    <row r="57" spans="1:64">
       <c r="A57" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B57" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C57">
         <v>614496</v>
@@ -9884,7 +10178,7 @@
         <v>582357</v>
       </c>
       <c r="AG57">
-        <v>2100</v>
+        <v>640970</v>
       </c>
       <c r="AH57">
         <v>2100</v>
@@ -9896,25 +10190,25 @@
         <v>2100</v>
       </c>
       <c r="AK57">
+        <v>2100</v>
+      </c>
+      <c r="AL57">
         <v>2099.99999979</v>
-      </c>
-      <c r="AL57">
-        <v>2100</v>
       </c>
       <c r="AM57">
         <v>2100</v>
       </c>
       <c r="AN57">
+        <v>2100</v>
+      </c>
+      <c r="AO57">
         <v>2099.99999979</v>
-      </c>
-      <c r="AO57">
-        <v>2100</v>
       </c>
       <c r="AP57">
         <v>2100</v>
       </c>
       <c r="AQ57">
-        <v>1760</v>
+        <v>2100</v>
       </c>
       <c r="AR57">
         <v>1760</v>
@@ -9932,13 +10226,13 @@
         <v>1760</v>
       </c>
       <c r="AW57">
+        <v>1760</v>
+      </c>
+      <c r="AX57">
         <v>1900</v>
       </c>
-      <c r="AX57">
+      <c r="AY57">
         <v>1900.00000019</v>
-      </c>
-      <c r="AY57">
-        <v>1900</v>
       </c>
       <c r="AZ57">
         <v>1900</v>
@@ -9950,10 +10244,10 @@
         <v>1900</v>
       </c>
       <c r="BC57">
+        <v>1900</v>
+      </c>
+      <c r="BD57">
         <v>1310.000000131</v>
-      </c>
-      <c r="BD57">
-        <v>1310</v>
       </c>
       <c r="BE57">
         <v>1310</v>
@@ -9965,21 +10259,27 @@
         <v>1310</v>
       </c>
       <c r="BH57">
+        <v>1310</v>
+      </c>
+      <c r="BI57">
         <v>1309.999999869</v>
-      </c>
-      <c r="BI57">
-        <v>1380</v>
       </c>
       <c r="BJ57">
         <v>1380</v>
       </c>
+      <c r="BK57">
+        <v>1380</v>
+      </c>
+      <c r="BL57">
+        <v>1380</v>
+      </c>
     </row>
-    <row r="58" spans="1:62">
+    <row r="58" spans="1:64">
       <c r="A58" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B58" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C58">
         <v>1624916</v>
@@ -10072,7 +10372,7 @@
         <v>1316373</v>
       </c>
       <c r="AG58">
-        <v>3270</v>
+        <v>1400658</v>
       </c>
       <c r="AH58">
         <v>3270</v>
@@ -10084,25 +10384,25 @@
         <v>3270</v>
       </c>
       <c r="AK58">
+        <v>3270</v>
+      </c>
+      <c r="AL58">
         <v>3219.999999678</v>
-      </c>
-      <c r="AL58">
-        <v>3220</v>
       </c>
       <c r="AM58">
         <v>3220</v>
       </c>
       <c r="AN58">
+        <v>3220</v>
+      </c>
+      <c r="AO58">
         <v>3219.999999678</v>
-      </c>
-      <c r="AO58">
-        <v>3220</v>
       </c>
       <c r="AP58">
         <v>3220</v>
       </c>
       <c r="AQ58">
-        <v>3370</v>
+        <v>3220</v>
       </c>
       <c r="AR58">
         <v>3370</v>
@@ -10120,13 +10420,13 @@
         <v>3370</v>
       </c>
       <c r="AW58">
+        <v>3370</v>
+      </c>
+      <c r="AX58">
         <v>4019.999999999999</v>
       </c>
-      <c r="AX58">
+      <c r="AY58">
         <v>4020.000000401999</v>
-      </c>
-      <c r="AY58">
-        <v>4020</v>
       </c>
       <c r="AZ58">
         <v>4020</v>
@@ -10138,10 +10438,10 @@
         <v>4020</v>
       </c>
       <c r="BC58">
+        <v>4020</v>
+      </c>
+      <c r="BD58">
         <v>3500.00000035</v>
-      </c>
-      <c r="BD58">
-        <v>3500</v>
       </c>
       <c r="BE58">
         <v>3500</v>
@@ -10153,21 +10453,27 @@
         <v>3500</v>
       </c>
       <c r="BH58">
+        <v>3500</v>
+      </c>
+      <c r="BI58">
         <v>3499.99999965</v>
-      </c>
-      <c r="BI58">
-        <v>3490</v>
       </c>
       <c r="BJ58">
         <v>3490</v>
       </c>
+      <c r="BK58">
+        <v>3490</v>
+      </c>
+      <c r="BL58">
+        <v>3490</v>
+      </c>
     </row>
-    <row r="59" spans="1:62">
+    <row r="59" spans="1:64">
       <c r="A59" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B59" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C59">
         <v>1577285</v>
@@ -10260,7 +10566,7 @@
         <v>1261183</v>
       </c>
       <c r="AG59">
-        <v>3040</v>
+        <v>1401665</v>
       </c>
       <c r="AH59">
         <v>3040</v>
@@ -10272,25 +10578,25 @@
         <v>3040</v>
       </c>
       <c r="AK59">
+        <v>3040</v>
+      </c>
+      <c r="AL59">
         <v>3139.999999686</v>
-      </c>
-      <c r="AL59">
-        <v>3140</v>
       </c>
       <c r="AM59">
         <v>3140</v>
       </c>
       <c r="AN59">
+        <v>3140</v>
+      </c>
+      <c r="AO59">
         <v>3139.999999686</v>
-      </c>
-      <c r="AO59">
-        <v>3140</v>
       </c>
       <c r="AP59">
         <v>3140</v>
       </c>
       <c r="AQ59">
-        <v>3310</v>
+        <v>3140</v>
       </c>
       <c r="AR59">
         <v>3310</v>
@@ -10308,13 +10614,13 @@
         <v>3310</v>
       </c>
       <c r="AW59">
+        <v>3310</v>
+      </c>
+      <c r="AX59">
         <v>3980</v>
       </c>
-      <c r="AX59">
+      <c r="AY59">
         <v>3980.000000398</v>
-      </c>
-      <c r="AY59">
-        <v>3980</v>
       </c>
       <c r="AZ59">
         <v>3980</v>
@@ -10326,10 +10632,10 @@
         <v>3980</v>
       </c>
       <c r="BC59">
+        <v>3980</v>
+      </c>
+      <c r="BD59">
         <v>3710.000000371</v>
-      </c>
-      <c r="BD59">
-        <v>3710</v>
       </c>
       <c r="BE59">
         <v>3710</v>
@@ -10341,21 +10647,27 @@
         <v>3710</v>
       </c>
       <c r="BH59">
+        <v>3710</v>
+      </c>
+      <c r="BI59">
         <v>3709.999999629</v>
-      </c>
-      <c r="BI59">
-        <v>3920</v>
       </c>
       <c r="BJ59">
         <v>3920</v>
       </c>
+      <c r="BK59">
+        <v>3920</v>
+      </c>
+      <c r="BL59">
+        <v>3920</v>
+      </c>
     </row>
-    <row r="60" spans="1:62">
+    <row r="60" spans="1:64">
       <c r="A60" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B60" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C60">
         <v>158593</v>
@@ -10448,7 +10760,7 @@
         <v>66241</v>
       </c>
       <c r="AG60">
-        <v>570</v>
+        <v>73782</v>
       </c>
       <c r="AH60">
         <v>570</v>
@@ -10460,25 +10772,25 @@
         <v>570</v>
       </c>
       <c r="AK60">
+        <v>570</v>
+      </c>
+      <c r="AL60">
         <v>279.999999972</v>
-      </c>
-      <c r="AL60">
-        <v>280</v>
       </c>
       <c r="AM60">
         <v>280</v>
       </c>
       <c r="AN60">
+        <v>280</v>
+      </c>
+      <c r="AO60">
         <v>279.999999972</v>
-      </c>
-      <c r="AO60">
-        <v>280</v>
       </c>
       <c r="AP60">
         <v>280</v>
       </c>
       <c r="AQ60">
-        <v>170</v>
+        <v>280</v>
       </c>
       <c r="AR60">
         <v>170</v>
@@ -10496,13 +10808,13 @@
         <v>170</v>
       </c>
       <c r="AW60">
+        <v>170</v>
+      </c>
+      <c r="AX60">
         <v>130</v>
       </c>
-      <c r="AX60">
+      <c r="AY60">
         <v>130.000000013</v>
-      </c>
-      <c r="AY60">
-        <v>130</v>
       </c>
       <c r="AZ60">
         <v>130</v>
@@ -10514,10 +10826,10 @@
         <v>130</v>
       </c>
       <c r="BC60">
+        <v>130</v>
+      </c>
+      <c r="BD60">
         <v>130.000000013</v>
-      </c>
-      <c r="BD60">
-        <v>130</v>
       </c>
       <c r="BE60">
         <v>130</v>
@@ -10529,21 +10841,27 @@
         <v>130</v>
       </c>
       <c r="BH60">
+        <v>130</v>
+      </c>
+      <c r="BI60">
         <v>129.999999987</v>
-      </c>
-      <c r="BI60">
-        <v>150</v>
       </c>
       <c r="BJ60">
         <v>150</v>
       </c>
+      <c r="BK60">
+        <v>150</v>
+      </c>
+      <c r="BL60">
+        <v>150</v>
+      </c>
     </row>
-    <row r="61" spans="1:62">
+    <row r="61" spans="1:64">
       <c r="A61" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B61" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C61">
         <v>8740917</v>
@@ -10636,7 +10954,7 @@
         <v>24366798</v>
       </c>
       <c r="AG61">
-        <v>18700</v>
+        <v>27873443</v>
       </c>
       <c r="AH61">
         <v>18700</v>
@@ -10648,28 +10966,28 @@
         <v>18700</v>
       </c>
       <c r="AK61">
+        <v>18700</v>
+      </c>
+      <c r="AL61">
         <v>15169.999998483</v>
-      </c>
-      <c r="AL61">
-        <v>15170</v>
       </c>
       <c r="AM61">
         <v>15170</v>
       </c>
       <c r="AN61">
+        <v>15170</v>
+      </c>
+      <c r="AO61">
         <v>15169.999998483</v>
-      </c>
-      <c r="AO61">
-        <v>15170</v>
       </c>
       <c r="AP61">
         <v>15170</v>
       </c>
       <c r="AQ61">
+        <v>15170</v>
+      </c>
+      <c r="AR61">
         <v>33920.000003</v>
-      </c>
-      <c r="AR61">
-        <v>33920</v>
       </c>
       <c r="AS61">
         <v>33920</v>
@@ -10684,13 +11002,13 @@
         <v>33920</v>
       </c>
       <c r="AW61">
+        <v>33920</v>
+      </c>
+      <c r="AX61">
         <v>19990</v>
       </c>
-      <c r="AX61">
+      <c r="AY61">
         <v>19990.000001999</v>
-      </c>
-      <c r="AY61">
-        <v>19990</v>
       </c>
       <c r="AZ61">
         <v>19990</v>
@@ -10702,10 +11020,10 @@
         <v>19990</v>
       </c>
       <c r="BC61">
+        <v>19990</v>
+      </c>
+      <c r="BD61">
         <v>63890.000006389</v>
-      </c>
-      <c r="BD61">
-        <v>63890</v>
       </c>
       <c r="BE61">
         <v>63890</v>
@@ -10717,21 +11035,27 @@
         <v>63890</v>
       </c>
       <c r="BH61">
+        <v>63890</v>
+      </c>
+      <c r="BI61">
         <v>63889.999993611</v>
       </c>
-      <c r="BI61">
+      <c r="BJ61">
         <v>51440.00000000001</v>
       </c>
-      <c r="BJ61">
+      <c r="BK61">
         <v>51440</v>
       </c>
+      <c r="BL61">
+        <v>51440</v>
+      </c>
     </row>
-    <row r="62" spans="1:62">
+    <row r="62" spans="1:64">
       <c r="A62" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B62" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C62">
         <v>23219048</v>
@@ -10824,7 +11148,7 @@
         <v>14646840</v>
       </c>
       <c r="AG62">
-        <v>12550</v>
+        <v>16242650</v>
       </c>
       <c r="AH62">
         <v>12550</v>
@@ -10836,28 +11160,28 @@
         <v>12550</v>
       </c>
       <c r="AK62">
+        <v>12550</v>
+      </c>
+      <c r="AL62">
         <v>37699.99999623001</v>
-      </c>
-      <c r="AL62">
-        <v>37700</v>
       </c>
       <c r="AM62">
         <v>37700</v>
       </c>
       <c r="AN62">
+        <v>37700</v>
+      </c>
+      <c r="AO62">
         <v>37699.99999623</v>
-      </c>
-      <c r="AO62">
-        <v>37700</v>
       </c>
       <c r="AP62">
         <v>37700</v>
       </c>
       <c r="AQ62">
+        <v>37700</v>
+      </c>
+      <c r="AR62">
         <v>43990.000004</v>
-      </c>
-      <c r="AR62">
-        <v>43990</v>
       </c>
       <c r="AS62">
         <v>43990</v>
@@ -10872,13 +11196,13 @@
         <v>43990</v>
       </c>
       <c r="AW62">
+        <v>43990</v>
+      </c>
+      <c r="AX62">
         <v>44700</v>
       </c>
-      <c r="AX62">
+      <c r="AY62">
         <v>44700.00000447</v>
-      </c>
-      <c r="AY62">
-        <v>44700</v>
       </c>
       <c r="AZ62">
         <v>44700</v>
@@ -10887,13 +11211,13 @@
         <v>44700</v>
       </c>
       <c r="BB62">
+        <v>44700</v>
+      </c>
+      <c r="BC62">
         <v>44699.99999999999</v>
       </c>
-      <c r="BC62">
+      <c r="BD62">
         <v>17880.000001788</v>
-      </c>
-      <c r="BD62">
-        <v>17880</v>
       </c>
       <c r="BE62">
         <v>17880</v>
@@ -10905,21 +11229,27 @@
         <v>17880</v>
       </c>
       <c r="BH62">
+        <v>17880</v>
+      </c>
+      <c r="BI62">
         <v>17879.999998212</v>
-      </c>
-      <c r="BI62">
-        <v>14200</v>
       </c>
       <c r="BJ62">
         <v>14200</v>
       </c>
+      <c r="BK62">
+        <v>14200</v>
+      </c>
+      <c r="BL62">
+        <v>14200</v>
+      </c>
     </row>
-    <row r="63" spans="1:62">
+    <row r="63" spans="1:64">
       <c r="A63" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B63" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C63">
         <v>12409146</v>
@@ -10994,7 +11324,7 @@
         <v>11877491</v>
       </c>
       <c r="AG63">
-        <v>25340</v>
+        <v>12391005</v>
       </c>
       <c r="AH63">
         <v>25340</v>
@@ -11006,31 +11336,31 @@
         <v>25340</v>
       </c>
       <c r="AK63">
+        <v>25340</v>
+      </c>
+      <c r="AL63">
         <v>25779.999997422</v>
-      </c>
-      <c r="AL63">
-        <v>25780</v>
       </c>
       <c r="AM63">
         <v>25780</v>
       </c>
       <c r="AN63">
+        <v>25780</v>
+      </c>
+      <c r="AO63">
         <v>25779.999997422</v>
-      </c>
-      <c r="AU63">
-        <v>24290</v>
       </c>
       <c r="AV63">
         <v>24290</v>
       </c>
       <c r="AW63">
+        <v>24290</v>
+      </c>
+      <c r="AX63">
         <v>24550</v>
       </c>
-      <c r="AX63">
+      <c r="AY63">
         <v>24550.000002455</v>
-      </c>
-      <c r="AY63">
-        <v>24550</v>
       </c>
       <c r="AZ63">
         <v>24550</v>
@@ -11042,10 +11372,10 @@
         <v>24550</v>
       </c>
       <c r="BC63">
+        <v>24550</v>
+      </c>
+      <c r="BD63">
         <v>26440.000002644</v>
-      </c>
-      <c r="BD63">
-        <v>26440</v>
       </c>
       <c r="BE63">
         <v>26440</v>
@@ -11057,21 +11387,27 @@
         <v>26440</v>
       </c>
       <c r="BH63">
+        <v>26440</v>
+      </c>
+      <c r="BI63">
         <v>26439.999997356</v>
-      </c>
-      <c r="BI63">
-        <v>24590</v>
       </c>
       <c r="BJ63">
         <v>24590</v>
       </c>
+      <c r="BK63">
+        <v>24590</v>
+      </c>
+      <c r="BL63">
+        <v>24590</v>
+      </c>
     </row>
-    <row r="64" spans="1:62">
+    <row r="64" spans="1:64">
       <c r="A64" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B64" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="K64">
         <v>12617127</v>
@@ -11091,17 +11427,14 @@
       <c r="P64">
         <v>10024356</v>
       </c>
-      <c r="AO64">
-        <v>25780</v>
-      </c>
       <c r="AP64">
         <v>25780</v>
       </c>
       <c r="AQ64">
+        <v>25780</v>
+      </c>
+      <c r="AR64">
         <v>24290.000002</v>
-      </c>
-      <c r="AR64">
-        <v>24290</v>
       </c>
       <c r="AS64">
         <v>24290</v>
@@ -11109,13 +11442,16 @@
       <c r="AT64">
         <v>24290</v>
       </c>
+      <c r="AU64">
+        <v>24290</v>
+      </c>
     </row>
-    <row r="65" spans="1:62">
+    <row r="65" spans="1:64">
       <c r="A65" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B65" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C65">
         <v>7464468</v>
@@ -11208,7 +11544,7 @@
         <v>938216</v>
       </c>
       <c r="AG65">
-        <v>10560</v>
+        <v>945615</v>
       </c>
       <c r="AH65">
         <v>10560</v>
@@ -11220,28 +11556,28 @@
         <v>10560</v>
       </c>
       <c r="AK65">
+        <v>10560</v>
+      </c>
+      <c r="AL65">
         <v>10559.999998944</v>
-      </c>
-      <c r="AL65">
-        <v>10560</v>
       </c>
       <c r="AM65">
         <v>10560</v>
       </c>
       <c r="AN65">
+        <v>10560</v>
+      </c>
+      <c r="AO65">
         <v>10559.999998944</v>
-      </c>
-      <c r="AO65">
-        <v>10560</v>
       </c>
       <c r="AP65">
         <v>10560</v>
       </c>
       <c r="AQ65">
+        <v>10560</v>
+      </c>
+      <c r="AR65">
         <v>23500.000002</v>
-      </c>
-      <c r="AR65">
-        <v>23500</v>
       </c>
       <c r="AS65">
         <v>23500</v>
@@ -11256,13 +11592,13 @@
         <v>23500</v>
       </c>
       <c r="AW65">
+        <v>23500</v>
+      </c>
+      <c r="AX65">
         <v>4320</v>
       </c>
-      <c r="AX65">
+      <c r="AY65">
         <v>4320.000000431999</v>
-      </c>
-      <c r="AY65">
-        <v>4320</v>
       </c>
       <c r="AZ65">
         <v>4320</v>
@@ -11274,10 +11610,10 @@
         <v>4320</v>
       </c>
       <c r="BC65">
+        <v>4320</v>
+      </c>
+      <c r="BD65">
         <v>1920.000000192</v>
-      </c>
-      <c r="BD65">
-        <v>1920</v>
       </c>
       <c r="BE65">
         <v>1920</v>
@@ -11289,21 +11625,27 @@
         <v>1920</v>
       </c>
       <c r="BH65">
+        <v>1920</v>
+      </c>
+      <c r="BI65">
         <v>1919.999999808</v>
-      </c>
-      <c r="BI65">
-        <v>2390</v>
       </c>
       <c r="BJ65">
         <v>2390</v>
       </c>
+      <c r="BK65">
+        <v>2390</v>
+      </c>
+      <c r="BL65">
+        <v>2390</v>
+      </c>
     </row>
-    <row r="66" spans="1:62">
+    <row r="66" spans="1:64">
       <c r="A66" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B66" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C66">
         <v>8232787</v>
@@ -11396,7 +11738,7 @@
         <v>12957128</v>
       </c>
       <c r="AG66">
-        <v>17430</v>
+        <v>17478394</v>
       </c>
       <c r="AH66">
         <v>17430</v>
@@ -11408,28 +11750,28 @@
         <v>17430</v>
       </c>
       <c r="AK66">
+        <v>17430</v>
+      </c>
+      <c r="AL66">
         <v>18599.99999814</v>
-      </c>
-      <c r="AL66">
-        <v>18600</v>
       </c>
       <c r="AM66">
         <v>18600</v>
       </c>
       <c r="AN66">
+        <v>18600</v>
+      </c>
+      <c r="AO66">
         <v>18599.99999814</v>
-      </c>
-      <c r="AO66">
-        <v>18600</v>
       </c>
       <c r="AP66">
         <v>18600</v>
       </c>
       <c r="AQ66">
+        <v>18600</v>
+      </c>
+      <c r="AR66">
         <v>9160.000001</v>
-      </c>
-      <c r="AR66">
-        <v>9160</v>
       </c>
       <c r="AS66">
         <v>9160</v>
@@ -11444,13 +11786,13 @@
         <v>9160</v>
       </c>
       <c r="AW66">
+        <v>9160</v>
+      </c>
+      <c r="AX66">
         <v>33670</v>
       </c>
-      <c r="AX66">
+      <c r="AY66">
         <v>33670.00000336699</v>
-      </c>
-      <c r="AY66">
-        <v>33670</v>
       </c>
       <c r="AZ66">
         <v>33670</v>
@@ -11462,10 +11804,10 @@
         <v>33670</v>
       </c>
       <c r="BC66">
+        <v>33670</v>
+      </c>
+      <c r="BD66">
         <v>33150.000003315</v>
-      </c>
-      <c r="BD66">
-        <v>33150</v>
       </c>
       <c r="BE66">
         <v>33150</v>
@@ -11477,21 +11819,27 @@
         <v>33150</v>
       </c>
       <c r="BH66">
+        <v>33150</v>
+      </c>
+      <c r="BI66">
         <v>33149.999996685</v>
-      </c>
-      <c r="BI66">
-        <v>28270</v>
       </c>
       <c r="BJ66">
         <v>28270</v>
       </c>
+      <c r="BK66">
+        <v>28270</v>
+      </c>
+      <c r="BL66">
+        <v>28270</v>
+      </c>
     </row>
-    <row r="67" spans="1:62">
+    <row r="67" spans="1:64">
       <c r="A67" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B67" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C67">
         <v>20007208</v>
@@ -11584,7 +11932,7 @@
         <v>19265181</v>
       </c>
       <c r="AG67">
-        <v>46100</v>
+        <v>20251663</v>
       </c>
       <c r="AH67">
         <v>46100</v>
@@ -11596,28 +11944,28 @@
         <v>46100</v>
       </c>
       <c r="AK67">
+        <v>46100</v>
+      </c>
+      <c r="AL67">
         <v>43249.999995675</v>
-      </c>
-      <c r="AL67">
-        <v>43250</v>
       </c>
       <c r="AM67">
         <v>43250</v>
       </c>
       <c r="AN67">
+        <v>43250</v>
+      </c>
+      <c r="AO67">
         <v>43249.999995675</v>
-      </c>
-      <c r="AO67">
-        <v>43250</v>
       </c>
       <c r="AP67">
         <v>43250</v>
       </c>
       <c r="AQ67">
+        <v>43250</v>
+      </c>
+      <c r="AR67">
         <v>43100.000004</v>
-      </c>
-      <c r="AR67">
-        <v>43100</v>
       </c>
       <c r="AS67">
         <v>43100</v>
@@ -11632,13 +11980,13 @@
         <v>43100</v>
       </c>
       <c r="AW67">
+        <v>43100</v>
+      </c>
+      <c r="AX67">
         <v>41770</v>
       </c>
-      <c r="AX67">
+      <c r="AY67">
         <v>41770.000004177</v>
-      </c>
-      <c r="AY67">
-        <v>41770</v>
       </c>
       <c r="AZ67">
         <v>41770</v>
@@ -11650,10 +11998,10 @@
         <v>41770</v>
       </c>
       <c r="BC67">
+        <v>41770</v>
+      </c>
+      <c r="BD67">
         <v>41020.000004102</v>
-      </c>
-      <c r="BD67">
-        <v>41020</v>
       </c>
       <c r="BE67">
         <v>41020</v>
@@ -11665,21 +12013,27 @@
         <v>41020</v>
       </c>
       <c r="BH67">
+        <v>41020</v>
+      </c>
+      <c r="BI67">
         <v>41019.999995898</v>
-      </c>
-      <c r="BI67">
-        <v>42710</v>
       </c>
       <c r="BJ67">
         <v>42710</v>
       </c>
+      <c r="BK67">
+        <v>42710</v>
+      </c>
+      <c r="BL67">
+        <v>42710</v>
+      </c>
     </row>
-    <row r="68" spans="1:62">
+    <row r="68" spans="1:64">
       <c r="A68" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B68" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C68">
         <v>133191</v>
@@ -11772,7 +12126,7 @@
         <v>159791</v>
       </c>
       <c r="AG68">
-        <v>800</v>
+        <v>143415</v>
       </c>
       <c r="AH68">
         <v>800</v>
@@ -11784,25 +12138,25 @@
         <v>800</v>
       </c>
       <c r="AK68">
+        <v>800</v>
+      </c>
+      <c r="AL68">
         <v>1449.999999855</v>
-      </c>
-      <c r="AL68">
-        <v>1450</v>
       </c>
       <c r="AM68">
         <v>1450</v>
       </c>
       <c r="AN68">
+        <v>1450</v>
+      </c>
+      <c r="AO68">
         <v>1449.999999855</v>
-      </c>
-      <c r="AO68">
-        <v>1450</v>
       </c>
       <c r="AP68">
         <v>1450</v>
       </c>
       <c r="AQ68">
-        <v>310</v>
+        <v>1450</v>
       </c>
       <c r="AR68">
         <v>310</v>
@@ -11820,13 +12174,13 @@
         <v>310</v>
       </c>
       <c r="AW68">
+        <v>310</v>
+      </c>
+      <c r="AX68">
         <v>220</v>
       </c>
-      <c r="AX68">
+      <c r="AY68">
         <v>220.000000022</v>
-      </c>
-      <c r="AY68">
-        <v>220</v>
       </c>
       <c r="AZ68">
         <v>220</v>
@@ -11838,10 +12192,10 @@
         <v>220</v>
       </c>
       <c r="BC68">
+        <v>220</v>
+      </c>
+      <c r="BD68">
         <v>220.000000022</v>
-      </c>
-      <c r="BD68">
-        <v>220</v>
       </c>
       <c r="BE68">
         <v>220</v>
@@ -11853,21 +12207,27 @@
         <v>220</v>
       </c>
       <c r="BH68">
+        <v>220</v>
+      </c>
+      <c r="BI68">
         <v>219.999999978</v>
-      </c>
-      <c r="BI68">
-        <v>190</v>
       </c>
       <c r="BJ68">
         <v>190</v>
       </c>
+      <c r="BK68">
+        <v>190</v>
+      </c>
+      <c r="BL68">
+        <v>190</v>
+      </c>
     </row>
-    <row r="69" spans="1:62">
+    <row r="69" spans="1:64">
       <c r="A69" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B69" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C69">
         <v>936199</v>
@@ -11960,7 +12320,7 @@
         <v>1334912</v>
       </c>
       <c r="AG69">
-        <v>2710</v>
+        <v>1646885</v>
       </c>
       <c r="AH69">
         <v>2710</v>
@@ -11972,25 +12332,25 @@
         <v>2710</v>
       </c>
       <c r="AK69">
+        <v>2710</v>
+      </c>
+      <c r="AL69">
         <v>2389.999999761</v>
-      </c>
-      <c r="AL69">
-        <v>2390</v>
       </c>
       <c r="AM69">
         <v>2390</v>
       </c>
       <c r="AN69">
+        <v>2390</v>
+      </c>
+      <c r="AO69">
         <v>2389.999999761</v>
-      </c>
-      <c r="AO69">
-        <v>2390</v>
       </c>
       <c r="AP69">
         <v>2390</v>
       </c>
       <c r="AQ69">
-        <v>2610</v>
+        <v>2390</v>
       </c>
       <c r="AR69">
         <v>2610</v>
@@ -12008,13 +12368,13 @@
         <v>2610</v>
       </c>
       <c r="AW69">
+        <v>2610</v>
+      </c>
+      <c r="AX69">
         <v>2530</v>
       </c>
-      <c r="AX69">
+      <c r="AY69">
         <v>2530.000000253</v>
-      </c>
-      <c r="AY69">
-        <v>2530</v>
       </c>
       <c r="AZ69">
         <v>2530</v>
@@ -12026,10 +12386,10 @@
         <v>2530</v>
       </c>
       <c r="BC69">
+        <v>2530</v>
+      </c>
+      <c r="BD69">
         <v>2060.000000206</v>
-      </c>
-      <c r="BD69">
-        <v>2060</v>
       </c>
       <c r="BE69">
         <v>2060</v>
@@ -12041,21 +12401,27 @@
         <v>2060</v>
       </c>
       <c r="BH69">
+        <v>2060</v>
+      </c>
+      <c r="BI69">
         <v>2059.999999794</v>
-      </c>
-      <c r="BI69">
-        <v>2100</v>
       </c>
       <c r="BJ69">
         <v>2100</v>
       </c>
+      <c r="BK69">
+        <v>2100</v>
+      </c>
+      <c r="BL69">
+        <v>2100</v>
+      </c>
     </row>
-    <row r="70" spans="1:62">
+    <row r="70" spans="1:64">
       <c r="A70" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B70" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C70">
         <v>3842279</v>
@@ -12148,7 +12514,7 @@
         <v>4269370</v>
       </c>
       <c r="AG70">
-        <v>6550</v>
+        <v>4412812</v>
       </c>
       <c r="AH70">
         <v>6550</v>
@@ -12160,28 +12526,28 @@
         <v>6550</v>
       </c>
       <c r="AK70">
+        <v>6550</v>
+      </c>
+      <c r="AL70">
         <v>6579.999999342</v>
       </c>
-      <c r="AL70">
+      <c r="AM70">
         <v>6579.999999999999</v>
       </c>
-      <c r="AM70">
+      <c r="AN70">
         <v>6580</v>
       </c>
-      <c r="AN70">
+      <c r="AO70">
         <v>6579.999999342001</v>
-      </c>
-      <c r="AO70">
-        <v>6580</v>
       </c>
       <c r="AP70">
         <v>6580</v>
       </c>
       <c r="AQ70">
+        <v>6580</v>
+      </c>
+      <c r="AR70">
         <v>7210.000001</v>
-      </c>
-      <c r="AR70">
-        <v>7210</v>
       </c>
       <c r="AS70">
         <v>7210</v>
@@ -12196,13 +12562,13 @@
         <v>7210</v>
       </c>
       <c r="AW70">
+        <v>7210</v>
+      </c>
+      <c r="AX70">
         <v>7170</v>
       </c>
-      <c r="AX70">
+      <c r="AY70">
         <v>7170.000000716999</v>
-      </c>
-      <c r="AY70">
-        <v>7170</v>
       </c>
       <c r="AZ70">
         <v>7170</v>
@@ -12214,10 +12580,10 @@
         <v>7170</v>
       </c>
       <c r="BC70">
+        <v>7170</v>
+      </c>
+      <c r="BD70">
         <v>8630.000000863</v>
-      </c>
-      <c r="BD70">
-        <v>8630</v>
       </c>
       <c r="BE70">
         <v>8630</v>
@@ -12229,21 +12595,27 @@
         <v>8630</v>
       </c>
       <c r="BH70">
+        <v>8630</v>
+      </c>
+      <c r="BI70">
         <v>8629.999999137</v>
-      </c>
-      <c r="BI70">
-        <v>8060</v>
       </c>
       <c r="BJ70">
         <v>8060</v>
       </c>
+      <c r="BK70">
+        <v>8060</v>
+      </c>
+      <c r="BL70">
+        <v>8060.000000000001</v>
+      </c>
     </row>
-    <row r="71" spans="1:62">
+    <row r="71" spans="1:64">
       <c r="A71" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B71" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C71">
         <v>14540297</v>
@@ -12336,7 +12708,7 @@
         <v>7338616</v>
       </c>
       <c r="AG71">
-        <v>28550</v>
+        <v>7864539</v>
       </c>
       <c r="AH71">
         <v>28550</v>
@@ -12348,28 +12720,28 @@
         <v>28550</v>
       </c>
       <c r="AK71">
+        <v>28550</v>
+      </c>
+      <c r="AL71">
         <v>30149.999996985</v>
-      </c>
-      <c r="AL71">
-        <v>30150</v>
       </c>
       <c r="AM71">
         <v>30150</v>
       </c>
       <c r="AN71">
+        <v>30150</v>
+      </c>
+      <c r="AO71">
         <v>30149.999996985</v>
-      </c>
-      <c r="AO71">
-        <v>30150</v>
       </c>
       <c r="AP71">
         <v>30150</v>
       </c>
       <c r="AQ71">
+        <v>30150</v>
+      </c>
+      <c r="AR71">
         <v>30770.000003</v>
-      </c>
-      <c r="AR71">
-        <v>27140</v>
       </c>
       <c r="AS71">
         <v>27140</v>
@@ -12384,13 +12756,13 @@
         <v>27140</v>
       </c>
       <c r="AW71">
+        <v>27140</v>
+      </c>
+      <c r="AX71">
         <v>29170</v>
       </c>
-      <c r="AX71">
+      <c r="AY71">
         <v>29170.000002917</v>
-      </c>
-      <c r="AY71">
-        <v>29170</v>
       </c>
       <c r="AZ71">
         <v>29170</v>
@@ -12402,10 +12774,10 @@
         <v>29170</v>
       </c>
       <c r="BC71">
+        <v>29170</v>
+      </c>
+      <c r="BD71">
         <v>14000.0000014</v>
-      </c>
-      <c r="BD71">
-        <v>14000</v>
       </c>
       <c r="BE71">
         <v>14000</v>
@@ -12417,21 +12789,27 @@
         <v>14000</v>
       </c>
       <c r="BH71">
+        <v>14000</v>
+      </c>
+      <c r="BI71">
         <v>13999.9999986</v>
-      </c>
-      <c r="BI71">
-        <v>15330</v>
       </c>
       <c r="BJ71">
         <v>15330</v>
       </c>
+      <c r="BK71">
+        <v>15330</v>
+      </c>
+      <c r="BL71">
+        <v>15330</v>
+      </c>
     </row>
-    <row r="72" spans="1:62">
+    <row r="72" spans="1:64">
       <c r="A72" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B72" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="K72">
         <v>4015938</v>
@@ -12499,17 +12877,17 @@
       <c r="AF72">
         <v>3270727</v>
       </c>
-      <c r="AO72">
-        <v>7230</v>
+      <c r="AG72">
+        <v>4543913</v>
       </c>
       <c r="AP72">
         <v>7230</v>
       </c>
       <c r="AQ72">
+        <v>7230</v>
+      </c>
+      <c r="AR72">
         <v>9600.000001</v>
-      </c>
-      <c r="AR72">
-        <v>9600</v>
       </c>
       <c r="AS72">
         <v>9600</v>
@@ -12524,13 +12902,13 @@
         <v>9600</v>
       </c>
       <c r="AW72">
+        <v>9600</v>
+      </c>
+      <c r="AX72">
         <v>9100</v>
       </c>
-      <c r="AX72">
+      <c r="AY72">
         <v>9100.00000091</v>
-      </c>
-      <c r="AY72">
-        <v>9100</v>
       </c>
       <c r="AZ72">
         <v>9100</v>
@@ -12542,10 +12920,10 @@
         <v>9100</v>
       </c>
       <c r="BC72">
+        <v>9100</v>
+      </c>
+      <c r="BD72">
         <v>12810.000001281</v>
-      </c>
-      <c r="BD72">
-        <v>12810</v>
       </c>
       <c r="BE72">
         <v>12810</v>
@@ -12557,21 +12935,27 @@
         <v>12810</v>
       </c>
       <c r="BH72">
+        <v>12810</v>
+      </c>
+      <c r="BI72">
         <v>12809.999998719</v>
       </c>
-      <c r="BI72">
+      <c r="BJ72">
         <v>7559.999999999999</v>
       </c>
-      <c r="BJ72">
+      <c r="BK72">
         <v>7560</v>
       </c>
+      <c r="BL72">
+        <v>7560</v>
+      </c>
     </row>
-    <row r="73" spans="1:62">
+    <row r="73" spans="1:64">
       <c r="A73" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B73" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="K73">
         <v>5856322</v>
@@ -12639,17 +13023,17 @@
       <c r="AF73">
         <v>4858149</v>
       </c>
-      <c r="AO73">
-        <v>9650</v>
+      <c r="AG73">
+        <v>5336924</v>
       </c>
       <c r="AP73">
         <v>9650</v>
       </c>
       <c r="AQ73">
+        <v>9650</v>
+      </c>
+      <c r="AR73">
         <v>10810.000001</v>
-      </c>
-      <c r="AR73">
-        <v>10810</v>
       </c>
       <c r="AS73">
         <v>10810</v>
@@ -12664,13 +13048,13 @@
         <v>10810</v>
       </c>
       <c r="AW73">
+        <v>10810</v>
+      </c>
+      <c r="AX73">
         <v>10910</v>
       </c>
-      <c r="AX73">
+      <c r="AY73">
         <v>10910.000001091</v>
-      </c>
-      <c r="AY73">
-        <v>10910</v>
       </c>
       <c r="AZ73">
         <v>10910</v>
@@ -12682,10 +13066,10 @@
         <v>10910</v>
       </c>
       <c r="BC73">
+        <v>10910</v>
+      </c>
+      <c r="BD73">
         <v>19820.000001982</v>
-      </c>
-      <c r="BD73">
-        <v>19820</v>
       </c>
       <c r="BE73">
         <v>19820</v>
@@ -12697,21 +13081,27 @@
         <v>19820</v>
       </c>
       <c r="BH73">
+        <v>19820</v>
+      </c>
+      <c r="BI73">
         <v>19819.999998018</v>
-      </c>
-      <c r="BI73">
-        <v>16590</v>
       </c>
       <c r="BJ73">
         <v>16590</v>
       </c>
+      <c r="BK73">
+        <v>16590</v>
+      </c>
+      <c r="BL73">
+        <v>16590</v>
+      </c>
     </row>
-    <row r="74" spans="1:62">
+    <row r="74" spans="1:64">
       <c r="A74" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B74" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C74">
         <v>3375973</v>
@@ -12737,9 +13127,6 @@
       <c r="J74">
         <v>4238987</v>
       </c>
-      <c r="AG74">
-        <v>8240</v>
-      </c>
       <c r="AH74">
         <v>8240</v>
       </c>
@@ -12750,24 +13137,27 @@
         <v>8240</v>
       </c>
       <c r="AK74">
+        <v>8240</v>
+      </c>
+      <c r="AL74">
         <v>7229.999999277</v>
       </c>
-      <c r="AL74">
+      <c r="AM74">
         <v>7229.999999999999</v>
       </c>
-      <c r="AM74">
+      <c r="AN74">
         <v>7230</v>
       </c>
-      <c r="AN74">
+      <c r="AO74">
         <v>7229.999999277001</v>
       </c>
     </row>
-    <row r="75" spans="1:62">
+    <row r="75" spans="1:64">
       <c r="A75" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B75" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C75">
         <v>5180433</v>
@@ -12793,9 +13183,6 @@
       <c r="J75">
         <v>5569456</v>
       </c>
-      <c r="AG75">
-        <v>10380</v>
-      </c>
       <c r="AH75">
         <v>10380</v>
       </c>
@@ -12806,24 +13193,27 @@
         <v>10380</v>
       </c>
       <c r="AK75">
+        <v>10380</v>
+      </c>
+      <c r="AL75">
         <v>9649.999999035002</v>
-      </c>
-      <c r="AL75">
-        <v>9650</v>
       </c>
       <c r="AM75">
         <v>9650</v>
       </c>
       <c r="AN75">
+        <v>9650</v>
+      </c>
+      <c r="AO75">
         <v>9649.999999035001</v>
       </c>
     </row>
-    <row r="76" spans="1:62">
+    <row r="76" spans="1:64">
       <c r="A76" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B76" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C76">
         <v>43257758</v>
@@ -12916,7 +13306,7 @@
         <v>21698358</v>
       </c>
       <c r="AG76">
-        <v>101750</v>
+        <v>20848434</v>
       </c>
       <c r="AH76">
         <v>101750</v>
@@ -12928,28 +13318,28 @@
         <v>101750</v>
       </c>
       <c r="AK76">
+        <v>101750</v>
+      </c>
+      <c r="AL76">
         <v>118139.999988186</v>
-      </c>
-      <c r="AL76">
-        <v>118140</v>
       </c>
       <c r="AM76">
         <v>118140</v>
       </c>
       <c r="AN76">
+        <v>118140</v>
+      </c>
+      <c r="AO76">
         <v>118139.999988186</v>
-      </c>
-      <c r="AO76">
-        <v>118140</v>
       </c>
       <c r="AP76">
         <v>118140</v>
       </c>
       <c r="AQ76">
+        <v>118140</v>
+      </c>
+      <c r="AR76">
         <v>97230.00001</v>
-      </c>
-      <c r="AR76">
-        <v>97230</v>
       </c>
       <c r="AS76">
         <v>97230</v>
@@ -12964,13 +13354,13 @@
         <v>97230</v>
       </c>
       <c r="AW76">
+        <v>97230</v>
+      </c>
+      <c r="AX76">
         <v>153490</v>
       </c>
-      <c r="AX76">
+      <c r="AY76">
         <v>153490.000015349</v>
-      </c>
-      <c r="AY76">
-        <v>153490</v>
       </c>
       <c r="AZ76">
         <v>153490</v>
@@ -12982,10 +13372,10 @@
         <v>153490</v>
       </c>
       <c r="BC76">
+        <v>153490</v>
+      </c>
+      <c r="BD76">
         <v>101740.000010174</v>
-      </c>
-      <c r="BD76">
-        <v>101740</v>
       </c>
       <c r="BE76">
         <v>101740</v>
@@ -12997,21 +13387,27 @@
         <v>101740</v>
       </c>
       <c r="BH76">
+        <v>101740</v>
+      </c>
+      <c r="BI76">
         <v>101739.999989826</v>
-      </c>
-      <c r="BI76">
-        <v>142970</v>
       </c>
       <c r="BJ76">
         <v>142970</v>
       </c>
+      <c r="BK76">
+        <v>142970</v>
+      </c>
+      <c r="BL76">
+        <v>142970</v>
+      </c>
     </row>
-    <row r="77" spans="1:62">
+    <row r="77" spans="1:64">
       <c r="A77" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B77" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C77">
         <v>9322944</v>
@@ -13055,9 +13451,6 @@
       <c r="P77">
         <v>11076942</v>
       </c>
-      <c r="AG77">
-        <v>23700</v>
-      </c>
       <c r="AH77">
         <v>23700</v>
       </c>
@@ -13068,28 +13461,28 @@
         <v>23700</v>
       </c>
       <c r="AK77">
+        <v>23700</v>
+      </c>
+      <c r="AL77">
         <v>21199.99999788</v>
-      </c>
-      <c r="AL77">
-        <v>21200</v>
       </c>
       <c r="AM77">
         <v>21200</v>
       </c>
       <c r="AN77">
+        <v>21200</v>
+      </c>
+      <c r="AO77">
         <v>21199.99999788</v>
-      </c>
-      <c r="AO77">
-        <v>21200</v>
       </c>
       <c r="AP77">
         <v>21200</v>
       </c>
       <c r="AQ77">
+        <v>21200</v>
+      </c>
+      <c r="AR77">
         <v>24660.000002</v>
-      </c>
-      <c r="AR77">
-        <v>24660</v>
       </c>
       <c r="AS77">
         <v>24660</v>
@@ -13097,13 +13490,16 @@
       <c r="AT77">
         <v>24660</v>
       </c>
+      <c r="AU77">
+        <v>24660</v>
+      </c>
     </row>
-    <row r="78" spans="1:62">
+    <row r="78" spans="1:64">
       <c r="A78" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B78" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="Q78">
         <v>12840050</v>
@@ -13153,20 +13549,20 @@
       <c r="AF78">
         <v>7121578</v>
       </c>
-      <c r="AU78">
-        <v>24660</v>
+      <c r="AG78">
+        <v>8148997</v>
       </c>
       <c r="AV78">
         <v>24660</v>
       </c>
       <c r="AW78">
+        <v>24660</v>
+      </c>
+      <c r="AX78">
         <v>26160</v>
       </c>
-      <c r="AX78">
+      <c r="AY78">
         <v>26160.000002616</v>
-      </c>
-      <c r="AY78">
-        <v>26160</v>
       </c>
       <c r="AZ78">
         <v>26160</v>
@@ -13178,10 +13574,10 @@
         <v>26160</v>
       </c>
       <c r="BC78">
+        <v>26160</v>
+      </c>
+      <c r="BD78">
         <v>31770.000003177</v>
-      </c>
-      <c r="BD78">
-        <v>31770</v>
       </c>
       <c r="BE78">
         <v>31770</v>
@@ -13193,21 +13589,27 @@
         <v>31770</v>
       </c>
       <c r="BH78">
+        <v>31770</v>
+      </c>
+      <c r="BI78">
         <v>31769.999996823</v>
-      </c>
-      <c r="BI78">
-        <v>23280</v>
       </c>
       <c r="BJ78">
         <v>23280</v>
       </c>
+      <c r="BK78">
+        <v>23280</v>
+      </c>
+      <c r="BL78">
+        <v>23280</v>
+      </c>
     </row>
-    <row r="79" spans="1:62">
+    <row r="79" spans="1:64">
       <c r="A79" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B79" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="K79">
         <v>1394895</v>
@@ -13275,14 +13677,14 @@
       <c r="AF79">
         <v>1998568</v>
       </c>
-      <c r="AO79">
-        <v>3100</v>
+      <c r="AG79">
+        <v>2113223</v>
       </c>
       <c r="AP79">
         <v>3100</v>
       </c>
       <c r="AQ79">
-        <v>3230</v>
+        <v>3100</v>
       </c>
       <c r="AR79">
         <v>3230</v>
@@ -13300,13 +13702,13 @@
         <v>3230</v>
       </c>
       <c r="AW79">
+        <v>3230</v>
+      </c>
+      <c r="AX79">
         <v>2930</v>
       </c>
-      <c r="AX79">
+      <c r="AY79">
         <v>2930.000000293</v>
-      </c>
-      <c r="AY79">
-        <v>2930</v>
       </c>
       <c r="AZ79">
         <v>2930</v>
@@ -13318,10 +13720,10 @@
         <v>2930</v>
       </c>
       <c r="BC79">
+        <v>2930</v>
+      </c>
+      <c r="BD79">
         <v>3060.000000306</v>
-      </c>
-      <c r="BD79">
-        <v>3060</v>
       </c>
       <c r="BE79">
         <v>3060</v>
@@ -13333,21 +13735,27 @@
         <v>3060</v>
       </c>
       <c r="BH79">
+        <v>3060</v>
+      </c>
+      <c r="BI79">
         <v>3059.999999694001</v>
-      </c>
-      <c r="BI79">
-        <v>3210</v>
       </c>
       <c r="BJ79">
         <v>3210</v>
       </c>
+      <c r="BK79">
+        <v>3210</v>
+      </c>
+      <c r="BL79">
+        <v>3210</v>
+      </c>
     </row>
-    <row r="80" spans="1:62">
+    <row r="80" spans="1:64">
       <c r="A80" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B80" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C80">
         <v>1206268</v>
@@ -13373,9 +13781,6 @@
       <c r="J80">
         <v>1573890</v>
       </c>
-      <c r="AG80">
-        <v>2850</v>
-      </c>
       <c r="AH80">
         <v>2850</v>
       </c>
@@ -13386,24 +13791,27 @@
         <v>2850</v>
       </c>
       <c r="AK80">
+        <v>2850</v>
+      </c>
+      <c r="AL80">
         <v>3099.999999690001</v>
-      </c>
-      <c r="AL80">
-        <v>3100</v>
       </c>
       <c r="AM80">
         <v>3100</v>
       </c>
       <c r="AN80">
+        <v>3100</v>
+      </c>
+      <c r="AO80">
         <v>3099.99999969</v>
       </c>
     </row>
-    <row r="81" spans="1:62">
+    <row r="81" spans="1:64">
       <c r="A81" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B81" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C81">
         <v>41927288</v>
@@ -13496,7 +13904,7 @@
         <v>38894117</v>
       </c>
       <c r="AG81">
-        <v>101540</v>
+        <v>40542319</v>
       </c>
       <c r="AH81">
         <v>101540</v>
@@ -13508,28 +13916,28 @@
         <v>101540</v>
       </c>
       <c r="AK81">
+        <v>101540</v>
+      </c>
+      <c r="AL81">
         <v>100609.999989939</v>
-      </c>
-      <c r="AL81">
-        <v>100610</v>
       </c>
       <c r="AM81">
         <v>100610</v>
       </c>
       <c r="AN81">
+        <v>100610</v>
+      </c>
+      <c r="AO81">
         <v>100609.999989939</v>
-      </c>
-      <c r="AO81">
-        <v>100610</v>
       </c>
       <c r="AP81">
         <v>100610</v>
       </c>
       <c r="AQ81">
+        <v>100610</v>
+      </c>
+      <c r="AR81">
         <v>109130.000011</v>
-      </c>
-      <c r="AR81">
-        <v>109130</v>
       </c>
       <c r="AS81">
         <v>109130</v>
@@ -13544,13 +13952,13 @@
         <v>109130</v>
       </c>
       <c r="AW81">
+        <v>109130</v>
+      </c>
+      <c r="AX81">
         <v>99200</v>
       </c>
-      <c r="AX81">
+      <c r="AY81">
         <v>99200.00000992001</v>
-      </c>
-      <c r="AY81">
-        <v>99200</v>
       </c>
       <c r="AZ81">
         <v>99200</v>
@@ -13562,10 +13970,10 @@
         <v>99200</v>
       </c>
       <c r="BC81">
+        <v>99200</v>
+      </c>
+      <c r="BD81">
         <v>128760.000012876</v>
-      </c>
-      <c r="BD81">
-        <v>128760</v>
       </c>
       <c r="BE81">
         <v>128760</v>
@@ -13577,21 +13985,27 @@
         <v>128760</v>
       </c>
       <c r="BH81">
+        <v>128760</v>
+      </c>
+      <c r="BI81">
         <v>128759.999987124</v>
-      </c>
-      <c r="BI81">
-        <v>111370</v>
       </c>
       <c r="BJ81">
         <v>111370</v>
       </c>
+      <c r="BK81">
+        <v>111370</v>
+      </c>
+      <c r="BL81">
+        <v>111370</v>
+      </c>
     </row>
-    <row r="82" spans="1:62">
+    <row r="82" spans="1:64">
       <c r="A82" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B82" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C82">
         <v>3921261</v>
@@ -13684,7 +14098,7 @@
         <v>3229774</v>
       </c>
       <c r="AG82">
-        <v>6540</v>
+        <v>3544795</v>
       </c>
       <c r="AH82">
         <v>6540</v>
@@ -13696,28 +14110,28 @@
         <v>6540</v>
       </c>
       <c r="AK82">
+        <v>6540</v>
+      </c>
+      <c r="AL82">
         <v>7339.999999266001</v>
       </c>
-      <c r="AL82">
+      <c r="AM82">
         <v>7339.999999999999</v>
       </c>
-      <c r="AM82">
+      <c r="AN82">
         <v>7340</v>
       </c>
-      <c r="AN82">
+      <c r="AO82">
         <v>7339.999999266</v>
-      </c>
-      <c r="AO82">
-        <v>7340</v>
       </c>
       <c r="AP82">
         <v>7340</v>
       </c>
       <c r="AQ82">
+        <v>7340</v>
+      </c>
+      <c r="AR82">
         <v>7720.000001</v>
-      </c>
-      <c r="AR82">
-        <v>7720</v>
       </c>
       <c r="AS82">
         <v>7720</v>
@@ -13732,28 +14146,28 @@
         <v>7720</v>
       </c>
       <c r="AW82">
+        <v>7720</v>
+      </c>
+      <c r="AX82">
         <v>8060.000000000001</v>
       </c>
-      <c r="AX82">
+      <c r="AY82">
         <v>8060.000000806001</v>
-      </c>
-      <c r="AY82">
-        <v>8060</v>
       </c>
       <c r="AZ82">
         <v>8060</v>
       </c>
       <c r="BA82">
-        <v>8060.000000000001</v>
+        <v>8060</v>
       </c>
       <c r="BB82">
         <v>8060.000000000001</v>
       </c>
       <c r="BC82">
+        <v>8060.000000000001</v>
+      </c>
+      <c r="BD82">
         <v>9270.000000927001</v>
-      </c>
-      <c r="BD82">
-        <v>9270</v>
       </c>
       <c r="BE82">
         <v>9270</v>
@@ -13765,21 +14179,27 @@
         <v>9270</v>
       </c>
       <c r="BH82">
+        <v>9270</v>
+      </c>
+      <c r="BI82">
         <v>9269.999999072999</v>
-      </c>
-      <c r="BI82">
-        <v>9730</v>
       </c>
       <c r="BJ82">
         <v>9730</v>
       </c>
+      <c r="BK82">
+        <v>9730</v>
+      </c>
+      <c r="BL82">
+        <v>9730</v>
+      </c>
     </row>
-    <row r="83" spans="1:62">
+    <row r="83" spans="1:64">
       <c r="A83" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B83" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C83">
         <v>4066188</v>
@@ -13872,7 +14292,7 @@
         <v>2325807</v>
       </c>
       <c r="AG83">
-        <v>6490</v>
+        <v>2421546</v>
       </c>
       <c r="AH83">
         <v>6490</v>
@@ -13884,28 +14304,28 @@
         <v>6490</v>
       </c>
       <c r="AK83">
+        <v>6490</v>
+      </c>
+      <c r="AL83">
         <v>6429.999999357</v>
-      </c>
-      <c r="AL83">
-        <v>6430</v>
       </c>
       <c r="AM83">
         <v>6430</v>
       </c>
       <c r="AN83">
+        <v>6430</v>
+      </c>
+      <c r="AO83">
         <v>6429.999999357</v>
-      </c>
-      <c r="AO83">
-        <v>6430</v>
       </c>
       <c r="AP83">
         <v>6430</v>
       </c>
       <c r="AQ83">
+        <v>6430</v>
+      </c>
+      <c r="AR83">
         <v>7320.000001</v>
-      </c>
-      <c r="AR83">
-        <v>7320</v>
       </c>
       <c r="AS83">
         <v>7320</v>
@@ -13920,13 +14340,13 @@
         <v>7320</v>
       </c>
       <c r="AW83">
+        <v>7320</v>
+      </c>
+      <c r="AX83">
         <v>7949.999999999995</v>
       </c>
-      <c r="AX83">
+      <c r="AY83">
         <v>7950.000000794996</v>
-      </c>
-      <c r="AY83">
-        <v>7949.999999999996</v>
       </c>
       <c r="AZ83">
         <v>7949.999999999996</v>
@@ -13938,10 +14358,10 @@
         <v>7949.999999999996</v>
       </c>
       <c r="BC83">
+        <v>7949.999999999996</v>
+      </c>
+      <c r="BD83">
         <v>5990.000000599003</v>
-      </c>
-      <c r="BD83">
-        <v>5990.000000000004</v>
       </c>
       <c r="BE83">
         <v>5990.000000000004</v>
@@ -13953,21 +14373,27 @@
         <v>5990.000000000004</v>
       </c>
       <c r="BH83">
+        <v>5990.000000000004</v>
+      </c>
+      <c r="BI83">
         <v>5989.999999401003</v>
       </c>
-      <c r="BI83">
+      <c r="BJ83">
         <v>7699.999999999999</v>
       </c>
-      <c r="BJ83">
+      <c r="BK83">
         <v>7700</v>
       </c>
+      <c r="BL83">
+        <v>7700</v>
+      </c>
     </row>
-    <row r="84" spans="1:62">
+    <row r="84" spans="1:64">
       <c r="A84" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B84" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C84">
         <v>33644701</v>
@@ -14060,7 +14486,7 @@
         <v>39262534</v>
       </c>
       <c r="AG84">
-        <v>65349.99999999999</v>
+        <v>41195709</v>
       </c>
       <c r="AH84">
         <v>65349.99999999999</v>
@@ -14069,31 +14495,31 @@
         <v>65349.99999999999</v>
       </c>
       <c r="AJ84">
+        <v>65349.99999999999</v>
+      </c>
+      <c r="AK84">
         <v>65350</v>
       </c>
-      <c r="AK84">
+      <c r="AL84">
         <v>61099.99999389</v>
-      </c>
-      <c r="AL84">
-        <v>61100</v>
       </c>
       <c r="AM84">
         <v>61100</v>
       </c>
       <c r="AN84">
+        <v>61100</v>
+      </c>
+      <c r="AO84">
         <v>61099.99999389</v>
-      </c>
-      <c r="AO84">
-        <v>61100</v>
       </c>
       <c r="AP84">
         <v>61100</v>
       </c>
       <c r="AQ84">
+        <v>61100</v>
+      </c>
+      <c r="AR84">
         <v>66290.000007</v>
-      </c>
-      <c r="AR84">
-        <v>66290</v>
       </c>
       <c r="AS84">
         <v>66290</v>
@@ -14102,19 +14528,19 @@
         <v>66290</v>
       </c>
       <c r="AU84">
+        <v>66290</v>
+      </c>
+      <c r="AV84">
         <v>64373.87096782</v>
       </c>
-      <c r="AV84">
+      <c r="AW84">
         <v>64090</v>
       </c>
-      <c r="AW84">
+      <c r="AX84">
         <v>64540</v>
       </c>
-      <c r="AX84">
+      <c r="AY84">
         <v>64540.00000645401</v>
-      </c>
-      <c r="AY84">
-        <v>64540.00000000001</v>
       </c>
       <c r="AZ84">
         <v>64540.00000000001</v>
@@ -14123,13 +14549,13 @@
         <v>64540.00000000001</v>
       </c>
       <c r="BB84">
+        <v>64540.00000000001</v>
+      </c>
+      <c r="BC84">
         <v>64540</v>
       </c>
-      <c r="BC84">
+      <c r="BD84">
         <v>71460.00000714599</v>
-      </c>
-      <c r="BD84">
-        <v>71460</v>
       </c>
       <c r="BE84">
         <v>71460</v>
@@ -14141,21 +14567,27 @@
         <v>71460</v>
       </c>
       <c r="BH84">
+        <v>71460</v>
+      </c>
+      <c r="BI84">
         <v>71459.99999285399</v>
-      </c>
-      <c r="BI84">
-        <v>72090</v>
       </c>
       <c r="BJ84">
         <v>72090</v>
       </c>
+      <c r="BK84">
+        <v>72090</v>
+      </c>
+      <c r="BL84">
+        <v>72090</v>
+      </c>
     </row>
-    <row r="85" spans="1:62">
+    <row r="85" spans="1:64">
       <c r="A85" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B85" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C85">
         <v>4057</v>
@@ -14248,7 +14680,7 @@
         <v>4789</v>
       </c>
       <c r="AG85">
-        <v>40</v>
+        <v>5024</v>
       </c>
       <c r="AH85">
         <v>40</v>
@@ -14260,25 +14692,25 @@
         <v>40</v>
       </c>
       <c r="AK85">
+        <v>40</v>
+      </c>
+      <c r="AL85">
         <v>19.999999998</v>
-      </c>
-      <c r="AL85">
-        <v>20</v>
       </c>
       <c r="AM85">
         <v>20</v>
       </c>
       <c r="AN85">
+        <v>20</v>
+      </c>
+      <c r="AO85">
         <v>19.999999998</v>
-      </c>
-      <c r="AO85">
-        <v>20</v>
       </c>
       <c r="AP85">
         <v>20</v>
       </c>
       <c r="AQ85">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="AR85">
         <v>30</v>
@@ -14299,10 +14731,10 @@
         <v>30</v>
       </c>
       <c r="AX85">
+        <v>30</v>
+      </c>
+      <c r="AY85">
         <v>30.000000003</v>
-      </c>
-      <c r="AY85">
-        <v>30</v>
       </c>
       <c r="AZ85">
         <v>30</v>
@@ -14314,10 +14746,10 @@
         <v>30</v>
       </c>
       <c r="BC85">
+        <v>30</v>
+      </c>
+      <c r="BD85">
         <v>10.000000001</v>
-      </c>
-      <c r="BD85">
-        <v>10</v>
       </c>
       <c r="BE85">
         <v>10</v>
@@ -14329,21 +14761,27 @@
         <v>10</v>
       </c>
       <c r="BH85">
+        <v>10</v>
+      </c>
+      <c r="BI85">
         <v>9.999999999</v>
-      </c>
-      <c r="BI85">
-        <v>10</v>
       </c>
       <c r="BJ85">
         <v>10</v>
       </c>
+      <c r="BK85">
+        <v>10</v>
+      </c>
+      <c r="BL85">
+        <v>10</v>
+      </c>
     </row>
-    <row r="86" spans="1:62">
+    <row r="86" spans="1:64">
       <c r="A86" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B86" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C86">
         <v>51219096</v>
@@ -14436,7 +14874,7 @@
         <v>57764988</v>
       </c>
       <c r="AG86">
-        <v>79640</v>
+        <v>67345333</v>
       </c>
       <c r="AH86">
         <v>79640</v>
@@ -14448,28 +14886,28 @@
         <v>79640</v>
       </c>
       <c r="AK86">
+        <v>79640</v>
+      </c>
+      <c r="AL86">
         <v>88439.99999115602</v>
-      </c>
-      <c r="AL86">
-        <v>88440</v>
       </c>
       <c r="AM86">
         <v>88440</v>
       </c>
       <c r="AN86">
+        <v>88440</v>
+      </c>
+      <c r="AO86">
         <v>88439.999991156</v>
-      </c>
-      <c r="AO86">
-        <v>88440</v>
       </c>
       <c r="AP86">
         <v>88440</v>
       </c>
       <c r="AQ86">
+        <v>88440</v>
+      </c>
+      <c r="AR86">
         <v>100410.00001</v>
-      </c>
-      <c r="AR86">
-        <v>100410</v>
       </c>
       <c r="AS86">
         <v>100410</v>
@@ -14484,13 +14922,13 @@
         <v>100410</v>
       </c>
       <c r="AW86">
+        <v>100410</v>
+      </c>
+      <c r="AX86">
         <v>113750</v>
       </c>
-      <c r="AX86">
+      <c r="AY86">
         <v>113750.000011375</v>
-      </c>
-      <c r="AY86">
-        <v>113750</v>
       </c>
       <c r="AZ86">
         <v>113750</v>
@@ -14502,10 +14940,10 @@
         <v>113750</v>
       </c>
       <c r="BC86">
+        <v>113750</v>
+      </c>
+      <c r="BD86">
         <v>101500.00001015</v>
-      </c>
-      <c r="BD86">
-        <v>101500</v>
       </c>
       <c r="BE86">
         <v>101500</v>
@@ -14517,21 +14955,27 @@
         <v>101500</v>
       </c>
       <c r="BH86">
+        <v>101500</v>
+      </c>
+      <c r="BI86">
         <v>101499.99998985</v>
-      </c>
-      <c r="BI86">
-        <v>111810</v>
       </c>
       <c r="BJ86">
         <v>111810</v>
       </c>
+      <c r="BK86">
+        <v>111810</v>
+      </c>
+      <c r="BL86">
+        <v>111810</v>
+      </c>
     </row>
-    <row r="87" spans="1:62">
+    <row r="87" spans="1:64">
       <c r="A87" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B87" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C87">
         <v>2813464</v>
@@ -14624,7 +15068,7 @@
         <v>2109770</v>
       </c>
       <c r="AG87">
-        <v>3980</v>
+        <v>2564726</v>
       </c>
       <c r="AH87">
         <v>3980</v>
@@ -14636,28 +15080,28 @@
         <v>3980</v>
       </c>
       <c r="AK87">
+        <v>3980</v>
+      </c>
+      <c r="AL87">
         <v>4549.999999545001</v>
-      </c>
-      <c r="AL87">
-        <v>6490</v>
       </c>
       <c r="AM87">
         <v>6490</v>
       </c>
       <c r="AN87">
+        <v>6490</v>
+      </c>
+      <c r="AO87">
         <v>6489.999999350999</v>
-      </c>
-      <c r="AO87">
-        <v>6490</v>
       </c>
       <c r="AP87">
         <v>6490</v>
       </c>
       <c r="AQ87">
+        <v>6490</v>
+      </c>
+      <c r="AR87">
         <v>9200.000001</v>
-      </c>
-      <c r="AR87">
-        <v>9200</v>
       </c>
       <c r="AS87">
         <v>9200</v>
@@ -14669,16 +15113,16 @@
         <v>9200</v>
       </c>
       <c r="AV87">
+        <v>9200</v>
+      </c>
+      <c r="AW87">
         <v>9200.000000000002</v>
       </c>
-      <c r="AW87">
+      <c r="AX87">
         <v>8630</v>
       </c>
-      <c r="AX87">
+      <c r="AY87">
         <v>8630.000000863</v>
-      </c>
-      <c r="AY87">
-        <v>8630</v>
       </c>
       <c r="AZ87">
         <v>8630</v>
@@ -14690,10 +15134,10 @@
         <v>8630</v>
       </c>
       <c r="BC87">
+        <v>8630</v>
+      </c>
+      <c r="BD87">
         <v>3520.000000352</v>
-      </c>
-      <c r="BD87">
-        <v>3520</v>
       </c>
       <c r="BE87">
         <v>3520</v>
@@ -14705,21 +15149,27 @@
         <v>3520</v>
       </c>
       <c r="BH87">
+        <v>3520</v>
+      </c>
+      <c r="BI87">
         <v>3519.999999648</v>
       </c>
-      <c r="BI87">
+      <c r="BJ87">
         <v>7090.000000000001</v>
       </c>
-      <c r="BJ87">
+      <c r="BK87">
         <v>7090</v>
       </c>
+      <c r="BL87">
+        <v>7090</v>
+      </c>
     </row>
-    <row r="88" spans="1:62">
+    <row r="88" spans="1:64">
       <c r="A88" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B88" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C88">
         <v>9380338</v>
@@ -14812,7 +15262,7 @@
         <v>6139563</v>
       </c>
       <c r="AG88">
-        <v>15050</v>
+        <v>6473121</v>
       </c>
       <c r="AH88">
         <v>15050</v>
@@ -14824,28 +15274,28 @@
         <v>15050</v>
       </c>
       <c r="AK88">
+        <v>15050</v>
+      </c>
+      <c r="AL88">
         <v>14579.999998542</v>
-      </c>
-      <c r="AL88">
-        <v>14580</v>
       </c>
       <c r="AM88">
         <v>14580</v>
       </c>
       <c r="AN88">
+        <v>14580</v>
+      </c>
+      <c r="AO88">
         <v>14579.999998542</v>
-      </c>
-      <c r="AO88">
-        <v>14580</v>
       </c>
       <c r="AP88">
         <v>14580</v>
       </c>
       <c r="AQ88">
+        <v>14580</v>
+      </c>
+      <c r="AR88">
         <v>13790.000001</v>
-      </c>
-      <c r="AR88">
-        <v>13790</v>
       </c>
       <c r="AS88">
         <v>13790</v>
@@ -14860,13 +15310,13 @@
         <v>13790</v>
       </c>
       <c r="AW88">
+        <v>13790</v>
+      </c>
+      <c r="AX88">
         <v>18810</v>
       </c>
-      <c r="AX88">
+      <c r="AY88">
         <v>18810.000001881</v>
-      </c>
-      <c r="AY88">
-        <v>18810</v>
       </c>
       <c r="AZ88">
         <v>18810</v>
@@ -14878,10 +15328,10 @@
         <v>18810</v>
       </c>
       <c r="BC88">
+        <v>18810</v>
+      </c>
+      <c r="BD88">
         <v>17710.000001771</v>
-      </c>
-      <c r="BD88">
-        <v>17710</v>
       </c>
       <c r="BE88">
         <v>17710</v>
@@ -14893,21 +15343,27 @@
         <v>17710</v>
       </c>
       <c r="BH88">
+        <v>17710</v>
+      </c>
+      <c r="BI88">
         <v>17709.999998229</v>
-      </c>
-      <c r="BI88">
-        <v>19300</v>
       </c>
       <c r="BJ88">
         <v>19300</v>
       </c>
+      <c r="BK88">
+        <v>19300</v>
+      </c>
+      <c r="BL88">
+        <v>19300</v>
+      </c>
     </row>
-    <row r="89" spans="1:62">
+    <row r="89" spans="1:64">
       <c r="A89" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B89" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="K89">
         <v>6389800</v>
@@ -14927,17 +15383,14 @@
       <c r="P89">
         <v>6160624</v>
       </c>
-      <c r="AO89">
-        <v>11200</v>
-      </c>
       <c r="AP89">
         <v>11200</v>
       </c>
       <c r="AQ89">
+        <v>11200</v>
+      </c>
+      <c r="AR89">
         <v>11550.000001</v>
-      </c>
-      <c r="AR89">
-        <v>11550</v>
       </c>
       <c r="AS89">
         <v>11550</v>
@@ -14945,13 +15398,16 @@
       <c r="AT89">
         <v>11550</v>
       </c>
+      <c r="AU89">
+        <v>11550</v>
+      </c>
     </row>
-    <row r="90" spans="1:62">
+    <row r="90" spans="1:64">
       <c r="A90" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B90" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C90">
         <v>5647167</v>
@@ -15026,7 +15482,7 @@
         <v>4770342</v>
       </c>
       <c r="AG90">
-        <v>8770</v>
+        <v>5431937</v>
       </c>
       <c r="AH90">
         <v>8770</v>
@@ -15038,31 +15494,31 @@
         <v>8770</v>
       </c>
       <c r="AK90">
+        <v>8770</v>
+      </c>
+      <c r="AL90">
         <v>11199.99999888</v>
-      </c>
-      <c r="AL90">
-        <v>11200</v>
       </c>
       <c r="AM90">
         <v>11200</v>
       </c>
       <c r="AN90">
+        <v>11200</v>
+      </c>
+      <c r="AO90">
         <v>11199.99999888</v>
-      </c>
-      <c r="AU90">
-        <v>11550</v>
       </c>
       <c r="AV90">
         <v>11550</v>
       </c>
       <c r="AW90">
+        <v>11550</v>
+      </c>
+      <c r="AX90">
         <v>12850</v>
       </c>
-      <c r="AX90">
+      <c r="AY90">
         <v>12850.000001285</v>
-      </c>
-      <c r="AY90">
-        <v>12850</v>
       </c>
       <c r="AZ90">
         <v>12850</v>
@@ -15074,10 +15530,10 @@
         <v>12850</v>
       </c>
       <c r="BC90">
+        <v>12850</v>
+      </c>
+      <c r="BD90">
         <v>13990.000001399</v>
-      </c>
-      <c r="BD90">
-        <v>13990</v>
       </c>
       <c r="BE90">
         <v>13990</v>
@@ -15089,21 +15545,27 @@
         <v>13990</v>
       </c>
       <c r="BH90">
+        <v>13990</v>
+      </c>
+      <c r="BI90">
         <v>13989.999998601</v>
-      </c>
-      <c r="BI90">
-        <v>12860</v>
       </c>
       <c r="BJ90">
         <v>12860</v>
       </c>
+      <c r="BK90">
+        <v>12860</v>
+      </c>
+      <c r="BL90">
+        <v>12860</v>
+      </c>
     </row>
-    <row r="91" spans="1:62">
+    <row r="91" spans="1:64">
       <c r="A91" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B91" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C91">
         <v>434244</v>
@@ -15196,7 +15658,7 @@
         <v>419677</v>
       </c>
       <c r="AG91">
-        <v>250</v>
+        <v>479657</v>
       </c>
       <c r="AH91">
         <v>250</v>
@@ -15208,25 +15670,25 @@
         <v>250</v>
       </c>
       <c r="AK91">
+        <v>250</v>
+      </c>
+      <c r="AL91">
         <v>449.999999955</v>
-      </c>
-      <c r="AL91">
-        <v>450</v>
       </c>
       <c r="AM91">
         <v>450</v>
       </c>
       <c r="AN91">
+        <v>450</v>
+      </c>
+      <c r="AO91">
         <v>449.999999955</v>
-      </c>
-      <c r="AO91">
-        <v>450</v>
       </c>
       <c r="AP91">
         <v>450</v>
       </c>
       <c r="AQ91">
-        <v>620</v>
+        <v>450</v>
       </c>
       <c r="AR91">
         <v>620</v>
@@ -15244,13 +15706,13 @@
         <v>620</v>
       </c>
       <c r="AW91">
+        <v>620</v>
+      </c>
+      <c r="AX91">
         <v>440</v>
       </c>
-      <c r="AX91">
+      <c r="AY91">
         <v>440.000000044</v>
-      </c>
-      <c r="AY91">
-        <v>440</v>
       </c>
       <c r="AZ91">
         <v>440</v>
@@ -15259,13 +15721,13 @@
         <v>440</v>
       </c>
       <c r="BB91">
+        <v>440</v>
+      </c>
+      <c r="BC91">
         <v>440.0000000000001</v>
       </c>
-      <c r="BC91">
+      <c r="BD91">
         <v>930.000000093</v>
-      </c>
-      <c r="BD91">
-        <v>930</v>
       </c>
       <c r="BE91">
         <v>930</v>
@@ -15277,12 +15739,18 @@
         <v>930</v>
       </c>
       <c r="BH91">
+        <v>930</v>
+      </c>
+      <c r="BI91">
         <v>929.999999907</v>
       </c>
-      <c r="BI91">
+      <c r="BJ91">
         <v>879.9999999999999</v>
       </c>
-      <c r="BJ91">
+      <c r="BK91">
+        <v>880</v>
+      </c>
+      <c r="BL91">
         <v>880</v>
       </c>
     </row>
